--- a/outputs/Secure20_Term_Life_Data.xlsx
+++ b/outputs/Secure20_Term_Life_Data.xlsx
@@ -61,3004 +61,3004 @@
     <t>Expiry_Date</t>
   </si>
   <si>
-    <t>S20TL00001</t>
-  </si>
-  <si>
-    <t>S20TL00002</t>
-  </si>
-  <si>
-    <t>S20TL00003</t>
-  </si>
-  <si>
-    <t>S20TL00004</t>
-  </si>
-  <si>
-    <t>S20TL00005</t>
-  </si>
-  <si>
-    <t>S20TL00006</t>
-  </si>
-  <si>
-    <t>S20TL00007</t>
-  </si>
-  <si>
-    <t>S20TL00008</t>
-  </si>
-  <si>
-    <t>S20TL00009</t>
-  </si>
-  <si>
-    <t>S20TL00010</t>
-  </si>
-  <si>
-    <t>S20TL00011</t>
-  </si>
-  <si>
-    <t>S20TL00012</t>
-  </si>
-  <si>
-    <t>S20TL00013</t>
-  </si>
-  <si>
-    <t>S20TL00014</t>
-  </si>
-  <si>
-    <t>S20TL00015</t>
-  </si>
-  <si>
-    <t>S20TL00016</t>
-  </si>
-  <si>
-    <t>S20TL00017</t>
-  </si>
-  <si>
-    <t>S20TL00018</t>
-  </si>
-  <si>
-    <t>S20TL00019</t>
-  </si>
-  <si>
-    <t>S20TL00020</t>
-  </si>
-  <si>
-    <t>S20TL00021</t>
-  </si>
-  <si>
-    <t>S20TL00022</t>
-  </si>
-  <si>
-    <t>S20TL00023</t>
-  </si>
-  <si>
-    <t>S20TL00024</t>
-  </si>
-  <si>
-    <t>S20TL00025</t>
-  </si>
-  <si>
-    <t>S20TL00026</t>
-  </si>
-  <si>
-    <t>S20TL00027</t>
-  </si>
-  <si>
-    <t>S20TL00028</t>
-  </si>
-  <si>
-    <t>S20TL00029</t>
-  </si>
-  <si>
-    <t>S20TL00030</t>
-  </si>
-  <si>
-    <t>S20TL00031</t>
-  </si>
-  <si>
-    <t>S20TL00032</t>
-  </si>
-  <si>
-    <t>S20TL00033</t>
-  </si>
-  <si>
-    <t>S20TL00034</t>
-  </si>
-  <si>
-    <t>S20TL00035</t>
-  </si>
-  <si>
-    <t>S20TL00036</t>
-  </si>
-  <si>
-    <t>S20TL00037</t>
-  </si>
-  <si>
-    <t>S20TL00038</t>
-  </si>
-  <si>
-    <t>S20TL00039</t>
-  </si>
-  <si>
-    <t>S20TL00040</t>
-  </si>
-  <si>
-    <t>S20TL00041</t>
-  </si>
-  <si>
-    <t>S20TL00042</t>
-  </si>
-  <si>
-    <t>S20TL00043</t>
-  </si>
-  <si>
-    <t>S20TL00044</t>
-  </si>
-  <si>
-    <t>S20TL00045</t>
-  </si>
-  <si>
-    <t>S20TL00046</t>
-  </si>
-  <si>
-    <t>S20TL00047</t>
-  </si>
-  <si>
-    <t>S20TL00048</t>
-  </si>
-  <si>
-    <t>S20TL00049</t>
-  </si>
-  <si>
-    <t>S20TL00050</t>
-  </si>
-  <si>
-    <t>S20TL00051</t>
-  </si>
-  <si>
-    <t>S20TL00052</t>
-  </si>
-  <si>
-    <t>S20TL00053</t>
-  </si>
-  <si>
-    <t>S20TL00054</t>
-  </si>
-  <si>
-    <t>S20TL00055</t>
-  </si>
-  <si>
-    <t>S20TL00056</t>
-  </si>
-  <si>
-    <t>S20TL00057</t>
-  </si>
-  <si>
-    <t>S20TL00058</t>
-  </si>
-  <si>
-    <t>S20TL00059</t>
-  </si>
-  <si>
-    <t>S20TL00060</t>
-  </si>
-  <si>
-    <t>S20TL00061</t>
-  </si>
-  <si>
-    <t>S20TL00062</t>
-  </si>
-  <si>
-    <t>S20TL00063</t>
-  </si>
-  <si>
-    <t>S20TL00064</t>
-  </si>
-  <si>
-    <t>S20TL00065</t>
-  </si>
-  <si>
-    <t>S20TL00066</t>
-  </si>
-  <si>
-    <t>S20TL00067</t>
-  </si>
-  <si>
-    <t>S20TL00068</t>
-  </si>
-  <si>
-    <t>S20TL00069</t>
-  </si>
-  <si>
-    <t>S20TL00070</t>
-  </si>
-  <si>
-    <t>S20TL00071</t>
-  </si>
-  <si>
-    <t>S20TL00072</t>
-  </si>
-  <si>
-    <t>S20TL00073</t>
-  </si>
-  <si>
-    <t>S20TL00074</t>
-  </si>
-  <si>
-    <t>S20TL00075</t>
-  </si>
-  <si>
-    <t>S20TL00076</t>
-  </si>
-  <si>
-    <t>S20TL00077</t>
-  </si>
-  <si>
-    <t>S20TL00078</t>
-  </si>
-  <si>
-    <t>S20TL00079</t>
-  </si>
-  <si>
-    <t>S20TL00080</t>
-  </si>
-  <si>
-    <t>S20TL00081</t>
-  </si>
-  <si>
-    <t>S20TL00082</t>
-  </si>
-  <si>
-    <t>S20TL00083</t>
-  </si>
-  <si>
-    <t>S20TL00084</t>
-  </si>
-  <si>
-    <t>S20TL00085</t>
-  </si>
-  <si>
-    <t>S20TL00086</t>
-  </si>
-  <si>
-    <t>S20TL00087</t>
-  </si>
-  <si>
-    <t>S20TL00088</t>
-  </si>
-  <si>
-    <t>S20TL00089</t>
-  </si>
-  <si>
-    <t>S20TL00090</t>
-  </si>
-  <si>
-    <t>S20TL00091</t>
-  </si>
-  <si>
-    <t>S20TL00092</t>
-  </si>
-  <si>
-    <t>S20TL00093</t>
-  </si>
-  <si>
-    <t>S20TL00094</t>
-  </si>
-  <si>
-    <t>S20TL00095</t>
-  </si>
-  <si>
-    <t>S20TL00096</t>
-  </si>
-  <si>
-    <t>S20TL00097</t>
-  </si>
-  <si>
-    <t>S20TL00098</t>
-  </si>
-  <si>
-    <t>S20TL00099</t>
-  </si>
-  <si>
-    <t>S20TL00100</t>
-  </si>
-  <si>
-    <t>S20TL00101</t>
-  </si>
-  <si>
-    <t>S20TL00102</t>
-  </si>
-  <si>
-    <t>S20TL00103</t>
-  </si>
-  <si>
-    <t>S20TL00104</t>
-  </si>
-  <si>
-    <t>S20TL00105</t>
-  </si>
-  <si>
-    <t>S20TL00106</t>
-  </si>
-  <si>
-    <t>S20TL00107</t>
-  </si>
-  <si>
-    <t>S20TL00108</t>
-  </si>
-  <si>
-    <t>S20TL00109</t>
-  </si>
-  <si>
-    <t>S20TL00110</t>
-  </si>
-  <si>
-    <t>S20TL00111</t>
-  </si>
-  <si>
-    <t>S20TL00112</t>
-  </si>
-  <si>
-    <t>S20TL00113</t>
-  </si>
-  <si>
-    <t>S20TL00114</t>
-  </si>
-  <si>
-    <t>S20TL00115</t>
-  </si>
-  <si>
-    <t>S20TL00116</t>
-  </si>
-  <si>
-    <t>S20TL00117</t>
-  </si>
-  <si>
-    <t>S20TL00118</t>
-  </si>
-  <si>
-    <t>S20TL00119</t>
-  </si>
-  <si>
-    <t>S20TL00120</t>
-  </si>
-  <si>
-    <t>S20TL00121</t>
-  </si>
-  <si>
-    <t>S20TL00122</t>
-  </si>
-  <si>
-    <t>S20TL00123</t>
-  </si>
-  <si>
-    <t>S20TL00124</t>
-  </si>
-  <si>
-    <t>S20TL00125</t>
-  </si>
-  <si>
-    <t>S20TL00126</t>
-  </si>
-  <si>
-    <t>S20TL00127</t>
-  </si>
-  <si>
-    <t>S20TL00128</t>
-  </si>
-  <si>
-    <t>S20TL00129</t>
-  </si>
-  <si>
-    <t>S20TL00130</t>
-  </si>
-  <si>
-    <t>S20TL00131</t>
-  </si>
-  <si>
-    <t>S20TL00132</t>
-  </si>
-  <si>
-    <t>S20TL00133</t>
-  </si>
-  <si>
-    <t>S20TL00134</t>
-  </si>
-  <si>
-    <t>S20TL00135</t>
-  </si>
-  <si>
-    <t>S20TL00136</t>
-  </si>
-  <si>
-    <t>S20TL00137</t>
-  </si>
-  <si>
-    <t>S20TL00138</t>
-  </si>
-  <si>
-    <t>S20TL00139</t>
-  </si>
-  <si>
-    <t>S20TL00140</t>
-  </si>
-  <si>
-    <t>S20TL00141</t>
-  </si>
-  <si>
-    <t>S20TL00142</t>
-  </si>
-  <si>
-    <t>S20TL00143</t>
-  </si>
-  <si>
-    <t>S20TL00144</t>
-  </si>
-  <si>
-    <t>S20TL00145</t>
-  </si>
-  <si>
-    <t>S20TL00146</t>
-  </si>
-  <si>
-    <t>S20TL00147</t>
-  </si>
-  <si>
-    <t>S20TL00148</t>
-  </si>
-  <si>
-    <t>S20TL00149</t>
-  </si>
-  <si>
-    <t>S20TL00150</t>
-  </si>
-  <si>
-    <t>S20TL00151</t>
-  </si>
-  <si>
-    <t>S20TL00152</t>
-  </si>
-  <si>
-    <t>S20TL00153</t>
-  </si>
-  <si>
-    <t>S20TL00154</t>
-  </si>
-  <si>
-    <t>S20TL00155</t>
-  </si>
-  <si>
-    <t>S20TL00156</t>
-  </si>
-  <si>
-    <t>S20TL00157</t>
-  </si>
-  <si>
-    <t>S20TL00158</t>
-  </si>
-  <si>
-    <t>S20TL00159</t>
-  </si>
-  <si>
-    <t>S20TL00160</t>
-  </si>
-  <si>
-    <t>S20TL00161</t>
-  </si>
-  <si>
-    <t>S20TL00162</t>
-  </si>
-  <si>
-    <t>S20TL00163</t>
-  </si>
-  <si>
-    <t>S20TL00164</t>
-  </si>
-  <si>
-    <t>S20TL00165</t>
-  </si>
-  <si>
-    <t>S20TL00166</t>
-  </si>
-  <si>
-    <t>S20TL00167</t>
-  </si>
-  <si>
-    <t>S20TL00168</t>
-  </si>
-  <si>
-    <t>S20TL00169</t>
-  </si>
-  <si>
-    <t>S20TL00170</t>
-  </si>
-  <si>
-    <t>S20TL00171</t>
-  </si>
-  <si>
-    <t>S20TL00172</t>
-  </si>
-  <si>
-    <t>S20TL00173</t>
-  </si>
-  <si>
-    <t>S20TL00174</t>
-  </si>
-  <si>
-    <t>S20TL00175</t>
-  </si>
-  <si>
-    <t>S20TL00176</t>
-  </si>
-  <si>
-    <t>S20TL00177</t>
-  </si>
-  <si>
-    <t>S20TL00178</t>
-  </si>
-  <si>
-    <t>S20TL00179</t>
-  </si>
-  <si>
-    <t>S20TL00180</t>
-  </si>
-  <si>
-    <t>S20TL00181</t>
-  </si>
-  <si>
-    <t>S20TL00182</t>
-  </si>
-  <si>
-    <t>S20TL00183</t>
-  </si>
-  <si>
-    <t>S20TL00184</t>
-  </si>
-  <si>
-    <t>S20TL00185</t>
-  </si>
-  <si>
-    <t>S20TL00186</t>
-  </si>
-  <si>
-    <t>S20TL00187</t>
-  </si>
-  <si>
-    <t>S20TL00188</t>
-  </si>
-  <si>
-    <t>S20TL00189</t>
-  </si>
-  <si>
-    <t>S20TL00190</t>
-  </si>
-  <si>
-    <t>S20TL00191</t>
-  </si>
-  <si>
-    <t>S20TL00192</t>
-  </si>
-  <si>
-    <t>S20TL00193</t>
-  </si>
-  <si>
-    <t>S20TL00194</t>
-  </si>
-  <si>
-    <t>S20TL00195</t>
-  </si>
-  <si>
-    <t>S20TL00196</t>
-  </si>
-  <si>
-    <t>S20TL00197</t>
-  </si>
-  <si>
-    <t>S20TL00198</t>
-  </si>
-  <si>
-    <t>S20TL00199</t>
-  </si>
-  <si>
-    <t>S20TL00200</t>
-  </si>
-  <si>
-    <t>S20TL00201</t>
-  </si>
-  <si>
-    <t>S20TL00202</t>
-  </si>
-  <si>
-    <t>S20TL00203</t>
-  </si>
-  <si>
-    <t>S20TL00204</t>
-  </si>
-  <si>
-    <t>S20TL00205</t>
-  </si>
-  <si>
-    <t>S20TL00206</t>
-  </si>
-  <si>
-    <t>S20TL00207</t>
-  </si>
-  <si>
-    <t>S20TL00208</t>
-  </si>
-  <si>
-    <t>S20TL00209</t>
-  </si>
-  <si>
-    <t>S20TL00210</t>
-  </si>
-  <si>
-    <t>S20TL00211</t>
-  </si>
-  <si>
-    <t>S20TL00212</t>
-  </si>
-  <si>
-    <t>S20TL00213</t>
-  </si>
-  <si>
-    <t>S20TL00214</t>
-  </si>
-  <si>
-    <t>S20TL00215</t>
-  </si>
-  <si>
-    <t>S20TL00216</t>
-  </si>
-  <si>
-    <t>S20TL00217</t>
-  </si>
-  <si>
-    <t>S20TL00218</t>
-  </si>
-  <si>
-    <t>S20TL00219</t>
-  </si>
-  <si>
-    <t>S20TL00220</t>
-  </si>
-  <si>
-    <t>S20TL00221</t>
-  </si>
-  <si>
-    <t>S20TL00222</t>
-  </si>
-  <si>
-    <t>S20TL00223</t>
-  </si>
-  <si>
-    <t>S20TL00224</t>
-  </si>
-  <si>
-    <t>S20TL00225</t>
-  </si>
-  <si>
-    <t>S20TL00226</t>
-  </si>
-  <si>
-    <t>S20TL00227</t>
-  </si>
-  <si>
-    <t>S20TL00228</t>
-  </si>
-  <si>
-    <t>S20TL00229</t>
-  </si>
-  <si>
-    <t>S20TL00230</t>
-  </si>
-  <si>
-    <t>S20TL00231</t>
-  </si>
-  <si>
-    <t>S20TL00232</t>
-  </si>
-  <si>
-    <t>S20TL00233</t>
-  </si>
-  <si>
-    <t>S20TL00234</t>
-  </si>
-  <si>
-    <t>S20TL00235</t>
-  </si>
-  <si>
-    <t>S20TL00236</t>
-  </si>
-  <si>
-    <t>S20TL00237</t>
-  </si>
-  <si>
-    <t>S20TL00238</t>
-  </si>
-  <si>
-    <t>S20TL00239</t>
-  </si>
-  <si>
-    <t>S20TL00240</t>
-  </si>
-  <si>
-    <t>S20TL00241</t>
-  </si>
-  <si>
-    <t>S20TL00242</t>
-  </si>
-  <si>
-    <t>S20TL00243</t>
-  </si>
-  <si>
-    <t>S20TL00244</t>
-  </si>
-  <si>
-    <t>S20TL00245</t>
-  </si>
-  <si>
-    <t>S20TL00246</t>
-  </si>
-  <si>
-    <t>S20TL00247</t>
-  </si>
-  <si>
-    <t>S20TL00248</t>
-  </si>
-  <si>
-    <t>S20TL00249</t>
-  </si>
-  <si>
-    <t>S20TL00250</t>
-  </si>
-  <si>
-    <t>S20TL00251</t>
-  </si>
-  <si>
-    <t>S20TL00252</t>
-  </si>
-  <si>
-    <t>S20TL00253</t>
-  </si>
-  <si>
-    <t>S20TL00254</t>
-  </si>
-  <si>
-    <t>S20TL00255</t>
-  </si>
-  <si>
-    <t>S20TL00256</t>
-  </si>
-  <si>
-    <t>S20TL00257</t>
-  </si>
-  <si>
-    <t>S20TL00258</t>
-  </si>
-  <si>
-    <t>S20TL00259</t>
-  </si>
-  <si>
-    <t>S20TL00260</t>
-  </si>
-  <si>
-    <t>S20TL00261</t>
-  </si>
-  <si>
-    <t>S20TL00262</t>
-  </si>
-  <si>
-    <t>S20TL00263</t>
-  </si>
-  <si>
-    <t>S20TL00264</t>
-  </si>
-  <si>
-    <t>S20TL00265</t>
-  </si>
-  <si>
-    <t>S20TL00266</t>
-  </si>
-  <si>
-    <t>S20TL00267</t>
-  </si>
-  <si>
-    <t>S20TL00268</t>
-  </si>
-  <si>
-    <t>S20TL00269</t>
-  </si>
-  <si>
-    <t>S20TL00270</t>
-  </si>
-  <si>
-    <t>S20TL00271</t>
-  </si>
-  <si>
-    <t>S20TL00272</t>
-  </si>
-  <si>
-    <t>S20TL00273</t>
-  </si>
-  <si>
-    <t>S20TL00274</t>
-  </si>
-  <si>
-    <t>S20TL00275</t>
-  </si>
-  <si>
-    <t>S20TL00276</t>
-  </si>
-  <si>
-    <t>S20TL00277</t>
-  </si>
-  <si>
-    <t>S20TL00278</t>
-  </si>
-  <si>
-    <t>S20TL00279</t>
-  </si>
-  <si>
-    <t>S20TL00280</t>
-  </si>
-  <si>
-    <t>S20TL00281</t>
-  </si>
-  <si>
-    <t>S20TL00282</t>
-  </si>
-  <si>
-    <t>S20TL00283</t>
-  </si>
-  <si>
-    <t>S20TL00284</t>
-  </si>
-  <si>
-    <t>S20TL00285</t>
-  </si>
-  <si>
-    <t>S20TL00286</t>
-  </si>
-  <si>
-    <t>S20TL00287</t>
-  </si>
-  <si>
-    <t>S20TL00288</t>
-  </si>
-  <si>
-    <t>S20TL00289</t>
-  </si>
-  <si>
-    <t>S20TL00290</t>
-  </si>
-  <si>
-    <t>S20TL00291</t>
-  </si>
-  <si>
-    <t>S20TL00292</t>
-  </si>
-  <si>
-    <t>S20TL00293</t>
-  </si>
-  <si>
-    <t>S20TL00294</t>
-  </si>
-  <si>
-    <t>S20TL00295</t>
-  </si>
-  <si>
-    <t>S20TL00296</t>
-  </si>
-  <si>
-    <t>S20TL00297</t>
-  </si>
-  <si>
-    <t>S20TL00298</t>
-  </si>
-  <si>
-    <t>S20TL00299</t>
-  </si>
-  <si>
-    <t>S20TL00300</t>
-  </si>
-  <si>
-    <t>S20TL00301</t>
-  </si>
-  <si>
-    <t>S20TL00302</t>
-  </si>
-  <si>
-    <t>S20TL00303</t>
-  </si>
-  <si>
-    <t>S20TL00304</t>
-  </si>
-  <si>
-    <t>S20TL00305</t>
-  </si>
-  <si>
-    <t>S20TL00306</t>
-  </si>
-  <si>
-    <t>S20TL00307</t>
-  </si>
-  <si>
-    <t>S20TL00308</t>
-  </si>
-  <si>
-    <t>S20TL00309</t>
-  </si>
-  <si>
-    <t>S20TL00310</t>
-  </si>
-  <si>
-    <t>S20TL00311</t>
-  </si>
-  <si>
-    <t>S20TL00312</t>
-  </si>
-  <si>
-    <t>S20TL00313</t>
-  </si>
-  <si>
-    <t>S20TL00314</t>
-  </si>
-  <si>
-    <t>S20TL00315</t>
-  </si>
-  <si>
-    <t>S20TL00316</t>
-  </si>
-  <si>
-    <t>S20TL00317</t>
-  </si>
-  <si>
-    <t>S20TL00318</t>
-  </si>
-  <si>
-    <t>S20TL00319</t>
-  </si>
-  <si>
-    <t>S20TL00320</t>
-  </si>
-  <si>
-    <t>S20TL00321</t>
-  </si>
-  <si>
-    <t>S20TL00322</t>
-  </si>
-  <si>
-    <t>S20TL00323</t>
-  </si>
-  <si>
-    <t>S20TL00324</t>
-  </si>
-  <si>
-    <t>S20TL00325</t>
-  </si>
-  <si>
-    <t>S20TL00326</t>
-  </si>
-  <si>
-    <t>S20TL00327</t>
-  </si>
-  <si>
-    <t>S20TL00328</t>
-  </si>
-  <si>
-    <t>S20TL00329</t>
-  </si>
-  <si>
-    <t>S20TL00330</t>
-  </si>
-  <si>
-    <t>S20TL00331</t>
-  </si>
-  <si>
-    <t>S20TL00332</t>
-  </si>
-  <si>
-    <t>S20TL00333</t>
-  </si>
-  <si>
-    <t>S20TL00334</t>
-  </si>
-  <si>
-    <t>S20TL00335</t>
-  </si>
-  <si>
-    <t>S20TL00336</t>
-  </si>
-  <si>
-    <t>S20TL00337</t>
-  </si>
-  <si>
-    <t>S20TL00338</t>
-  </si>
-  <si>
-    <t>S20TL00339</t>
-  </si>
-  <si>
-    <t>S20TL00340</t>
-  </si>
-  <si>
-    <t>S20TL00341</t>
-  </si>
-  <si>
-    <t>S20TL00342</t>
-  </si>
-  <si>
-    <t>S20TL00343</t>
-  </si>
-  <si>
-    <t>S20TL00344</t>
-  </si>
-  <si>
-    <t>S20TL00345</t>
-  </si>
-  <si>
-    <t>S20TL00346</t>
-  </si>
-  <si>
-    <t>S20TL00347</t>
-  </si>
-  <si>
-    <t>S20TL00348</t>
-  </si>
-  <si>
-    <t>S20TL00349</t>
-  </si>
-  <si>
-    <t>S20TL00350</t>
-  </si>
-  <si>
-    <t>S20TL00351</t>
-  </si>
-  <si>
-    <t>S20TL00352</t>
-  </si>
-  <si>
-    <t>S20TL00353</t>
-  </si>
-  <si>
-    <t>S20TL00354</t>
-  </si>
-  <si>
-    <t>S20TL00355</t>
-  </si>
-  <si>
-    <t>S20TL00356</t>
-  </si>
-  <si>
-    <t>S20TL00357</t>
-  </si>
-  <si>
-    <t>S20TL00358</t>
-  </si>
-  <si>
-    <t>S20TL00359</t>
-  </si>
-  <si>
-    <t>S20TL00360</t>
-  </si>
-  <si>
-    <t>S20TL00361</t>
-  </si>
-  <si>
-    <t>S20TL00362</t>
-  </si>
-  <si>
-    <t>S20TL00363</t>
-  </si>
-  <si>
-    <t>S20TL00364</t>
-  </si>
-  <si>
-    <t>S20TL00365</t>
-  </si>
-  <si>
-    <t>S20TL00366</t>
-  </si>
-  <si>
-    <t>S20TL00367</t>
-  </si>
-  <si>
-    <t>S20TL00368</t>
-  </si>
-  <si>
-    <t>S20TL00369</t>
-  </si>
-  <si>
-    <t>S20TL00370</t>
-  </si>
-  <si>
-    <t>S20TL00371</t>
-  </si>
-  <si>
-    <t>S20TL00372</t>
-  </si>
-  <si>
-    <t>S20TL00373</t>
-  </si>
-  <si>
-    <t>S20TL00374</t>
-  </si>
-  <si>
-    <t>S20TL00375</t>
-  </si>
-  <si>
-    <t>S20TL00376</t>
-  </si>
-  <si>
-    <t>S20TL00377</t>
-  </si>
-  <si>
-    <t>S20TL00378</t>
-  </si>
-  <si>
-    <t>S20TL00379</t>
-  </si>
-  <si>
-    <t>S20TL00380</t>
-  </si>
-  <si>
-    <t>S20TL00381</t>
-  </si>
-  <si>
-    <t>S20TL00382</t>
-  </si>
-  <si>
-    <t>S20TL00383</t>
-  </si>
-  <si>
-    <t>S20TL00384</t>
-  </si>
-  <si>
-    <t>S20TL00385</t>
-  </si>
-  <si>
-    <t>S20TL00386</t>
-  </si>
-  <si>
-    <t>S20TL00387</t>
-  </si>
-  <si>
-    <t>S20TL00388</t>
-  </si>
-  <si>
-    <t>S20TL00389</t>
-  </si>
-  <si>
-    <t>S20TL00390</t>
-  </si>
-  <si>
-    <t>S20TL00391</t>
-  </si>
-  <si>
-    <t>S20TL00392</t>
-  </si>
-  <si>
-    <t>S20TL00393</t>
-  </si>
-  <si>
-    <t>S20TL00394</t>
-  </si>
-  <si>
-    <t>S20TL00395</t>
-  </si>
-  <si>
-    <t>S20TL00396</t>
-  </si>
-  <si>
-    <t>S20TL00397</t>
-  </si>
-  <si>
-    <t>S20TL00398</t>
-  </si>
-  <si>
-    <t>S20TL00399</t>
-  </si>
-  <si>
-    <t>S20TL00400</t>
-  </si>
-  <si>
-    <t>S20TL00401</t>
-  </si>
-  <si>
-    <t>S20TL00402</t>
-  </si>
-  <si>
-    <t>S20TL00403</t>
-  </si>
-  <si>
-    <t>S20TL00404</t>
-  </si>
-  <si>
-    <t>S20TL00405</t>
-  </si>
-  <si>
-    <t>S20TL00406</t>
-  </si>
-  <si>
-    <t>S20TL00407</t>
-  </si>
-  <si>
-    <t>S20TL00408</t>
-  </si>
-  <si>
-    <t>S20TL00409</t>
-  </si>
-  <si>
-    <t>S20TL00410</t>
-  </si>
-  <si>
-    <t>S20TL00411</t>
-  </si>
-  <si>
-    <t>S20TL00412</t>
-  </si>
-  <si>
-    <t>S20TL00413</t>
-  </si>
-  <si>
-    <t>S20TL00414</t>
-  </si>
-  <si>
-    <t>S20TL00415</t>
-  </si>
-  <si>
-    <t>S20TL00416</t>
-  </si>
-  <si>
-    <t>S20TL00417</t>
-  </si>
-  <si>
-    <t>S20TL00418</t>
-  </si>
-  <si>
-    <t>S20TL00419</t>
-  </si>
-  <si>
-    <t>S20TL00420</t>
-  </si>
-  <si>
-    <t>S20TL00421</t>
-  </si>
-  <si>
-    <t>S20TL00422</t>
-  </si>
-  <si>
-    <t>S20TL00423</t>
-  </si>
-  <si>
-    <t>S20TL00424</t>
-  </si>
-  <si>
-    <t>S20TL00425</t>
-  </si>
-  <si>
-    <t>S20TL00426</t>
-  </si>
-  <si>
-    <t>S20TL00427</t>
-  </si>
-  <si>
-    <t>S20TL00428</t>
-  </si>
-  <si>
-    <t>S20TL00429</t>
-  </si>
-  <si>
-    <t>S20TL00430</t>
-  </si>
-  <si>
-    <t>S20TL00431</t>
-  </si>
-  <si>
-    <t>S20TL00432</t>
-  </si>
-  <si>
-    <t>S20TL00433</t>
-  </si>
-  <si>
-    <t>S20TL00434</t>
-  </si>
-  <si>
-    <t>S20TL00435</t>
-  </si>
-  <si>
-    <t>S20TL00436</t>
-  </si>
-  <si>
-    <t>S20TL00437</t>
-  </si>
-  <si>
-    <t>S20TL00438</t>
-  </si>
-  <si>
-    <t>S20TL00439</t>
-  </si>
-  <si>
-    <t>S20TL00440</t>
-  </si>
-  <si>
-    <t>S20TL00441</t>
-  </si>
-  <si>
-    <t>S20TL00442</t>
-  </si>
-  <si>
-    <t>S20TL00443</t>
-  </si>
-  <si>
-    <t>S20TL00444</t>
-  </si>
-  <si>
-    <t>S20TL00445</t>
-  </si>
-  <si>
-    <t>S20TL00446</t>
-  </si>
-  <si>
-    <t>S20TL00447</t>
-  </si>
-  <si>
-    <t>S20TL00448</t>
-  </si>
-  <si>
-    <t>S20TL00449</t>
-  </si>
-  <si>
-    <t>S20TL00450</t>
-  </si>
-  <si>
-    <t>S20TL00451</t>
-  </si>
-  <si>
-    <t>S20TL00452</t>
-  </si>
-  <si>
-    <t>S20TL00453</t>
-  </si>
-  <si>
-    <t>S20TL00454</t>
-  </si>
-  <si>
-    <t>S20TL00455</t>
-  </si>
-  <si>
-    <t>S20TL00456</t>
-  </si>
-  <si>
-    <t>S20TL00457</t>
-  </si>
-  <si>
-    <t>S20TL00458</t>
-  </si>
-  <si>
-    <t>S20TL00459</t>
-  </si>
-  <si>
-    <t>S20TL00460</t>
-  </si>
-  <si>
-    <t>S20TL00461</t>
-  </si>
-  <si>
-    <t>S20TL00462</t>
-  </si>
-  <si>
-    <t>S20TL00463</t>
-  </si>
-  <si>
-    <t>S20TL00464</t>
-  </si>
-  <si>
-    <t>S20TL00465</t>
-  </si>
-  <si>
-    <t>S20TL00466</t>
-  </si>
-  <si>
-    <t>S20TL00467</t>
-  </si>
-  <si>
-    <t>S20TL00468</t>
-  </si>
-  <si>
-    <t>S20TL00469</t>
-  </si>
-  <si>
-    <t>S20TL00470</t>
-  </si>
-  <si>
-    <t>S20TL00471</t>
-  </si>
-  <si>
-    <t>S20TL00472</t>
-  </si>
-  <si>
-    <t>S20TL00473</t>
-  </si>
-  <si>
-    <t>S20TL00474</t>
-  </si>
-  <si>
-    <t>S20TL00475</t>
-  </si>
-  <si>
-    <t>S20TL00476</t>
-  </si>
-  <si>
-    <t>S20TL00477</t>
-  </si>
-  <si>
-    <t>S20TL00478</t>
-  </si>
-  <si>
-    <t>S20TL00479</t>
-  </si>
-  <si>
-    <t>S20TL00480</t>
-  </si>
-  <si>
-    <t>S20TL00481</t>
-  </si>
-  <si>
-    <t>S20TL00482</t>
-  </si>
-  <si>
-    <t>S20TL00483</t>
-  </si>
-  <si>
-    <t>S20TL00484</t>
-  </si>
-  <si>
-    <t>S20TL00485</t>
-  </si>
-  <si>
-    <t>S20TL00486</t>
-  </si>
-  <si>
-    <t>S20TL00487</t>
-  </si>
-  <si>
-    <t>S20TL00488</t>
-  </si>
-  <si>
-    <t>S20TL00489</t>
-  </si>
-  <si>
-    <t>S20TL00490</t>
-  </si>
-  <si>
-    <t>S20TL00491</t>
-  </si>
-  <si>
-    <t>S20TL00492</t>
-  </si>
-  <si>
-    <t>S20TL00493</t>
-  </si>
-  <si>
-    <t>S20TL00494</t>
-  </si>
-  <si>
-    <t>S20TL00495</t>
-  </si>
-  <si>
-    <t>S20TL00496</t>
-  </si>
-  <si>
-    <t>S20TL00497</t>
-  </si>
-  <si>
-    <t>S20TL00498</t>
-  </si>
-  <si>
-    <t>S20TL00499</t>
-  </si>
-  <si>
-    <t>S20TL00500</t>
-  </si>
-  <si>
-    <t>S20TL00501</t>
-  </si>
-  <si>
-    <t>S20TL00502</t>
-  </si>
-  <si>
-    <t>S20TL00503</t>
-  </si>
-  <si>
-    <t>S20TL00504</t>
-  </si>
-  <si>
-    <t>S20TL00505</t>
-  </si>
-  <si>
-    <t>S20TL00506</t>
-  </si>
-  <si>
-    <t>S20TL00507</t>
-  </si>
-  <si>
-    <t>S20TL00508</t>
-  </si>
-  <si>
-    <t>S20TL00509</t>
-  </si>
-  <si>
-    <t>S20TL00510</t>
-  </si>
-  <si>
-    <t>S20TL00511</t>
-  </si>
-  <si>
-    <t>S20TL00512</t>
-  </si>
-  <si>
-    <t>S20TL00513</t>
-  </si>
-  <si>
-    <t>S20TL00514</t>
-  </si>
-  <si>
-    <t>S20TL00515</t>
-  </si>
-  <si>
-    <t>S20TL00516</t>
-  </si>
-  <si>
-    <t>S20TL00517</t>
-  </si>
-  <si>
-    <t>S20TL00518</t>
-  </si>
-  <si>
-    <t>S20TL00519</t>
-  </si>
-  <si>
-    <t>S20TL00520</t>
-  </si>
-  <si>
-    <t>S20TL00521</t>
-  </si>
-  <si>
-    <t>S20TL00522</t>
-  </si>
-  <si>
-    <t>S20TL00523</t>
-  </si>
-  <si>
-    <t>S20TL00524</t>
-  </si>
-  <si>
-    <t>S20TL00525</t>
-  </si>
-  <si>
-    <t>S20TL00526</t>
-  </si>
-  <si>
-    <t>S20TL00527</t>
-  </si>
-  <si>
-    <t>S20TL00528</t>
-  </si>
-  <si>
-    <t>S20TL00529</t>
-  </si>
-  <si>
-    <t>S20TL00530</t>
-  </si>
-  <si>
-    <t>S20TL00531</t>
-  </si>
-  <si>
-    <t>S20TL00532</t>
-  </si>
-  <si>
-    <t>S20TL00533</t>
-  </si>
-  <si>
-    <t>S20TL00534</t>
-  </si>
-  <si>
-    <t>S20TL00535</t>
-  </si>
-  <si>
-    <t>S20TL00536</t>
-  </si>
-  <si>
-    <t>S20TL00537</t>
-  </si>
-  <si>
-    <t>S20TL00538</t>
-  </si>
-  <si>
-    <t>S20TL00539</t>
-  </si>
-  <si>
-    <t>S20TL00540</t>
-  </si>
-  <si>
-    <t>S20TL00541</t>
-  </si>
-  <si>
-    <t>S20TL00542</t>
-  </si>
-  <si>
-    <t>S20TL00543</t>
-  </si>
-  <si>
-    <t>S20TL00544</t>
-  </si>
-  <si>
-    <t>S20TL00545</t>
-  </si>
-  <si>
-    <t>S20TL00546</t>
-  </si>
-  <si>
-    <t>S20TL00547</t>
-  </si>
-  <si>
-    <t>S20TL00548</t>
-  </si>
-  <si>
-    <t>S20TL00549</t>
-  </si>
-  <si>
-    <t>S20TL00550</t>
-  </si>
-  <si>
-    <t>S20TL00551</t>
-  </si>
-  <si>
-    <t>S20TL00552</t>
-  </si>
-  <si>
-    <t>S20TL00553</t>
-  </si>
-  <si>
-    <t>S20TL00554</t>
-  </si>
-  <si>
-    <t>S20TL00555</t>
-  </si>
-  <si>
-    <t>S20TL00556</t>
-  </si>
-  <si>
-    <t>S20TL00557</t>
-  </si>
-  <si>
-    <t>S20TL00558</t>
-  </si>
-  <si>
-    <t>S20TL00559</t>
-  </si>
-  <si>
-    <t>S20TL00560</t>
-  </si>
-  <si>
-    <t>S20TL00561</t>
-  </si>
-  <si>
-    <t>S20TL00562</t>
-  </si>
-  <si>
-    <t>S20TL00563</t>
-  </si>
-  <si>
-    <t>S20TL00564</t>
-  </si>
-  <si>
-    <t>S20TL00565</t>
-  </si>
-  <si>
-    <t>S20TL00566</t>
-  </si>
-  <si>
-    <t>S20TL00567</t>
-  </si>
-  <si>
-    <t>S20TL00568</t>
-  </si>
-  <si>
-    <t>S20TL00569</t>
-  </si>
-  <si>
-    <t>S20TL00570</t>
-  </si>
-  <si>
-    <t>S20TL00571</t>
-  </si>
-  <si>
-    <t>S20TL00572</t>
-  </si>
-  <si>
-    <t>S20TL00573</t>
-  </si>
-  <si>
-    <t>S20TL00574</t>
-  </si>
-  <si>
-    <t>S20TL00575</t>
-  </si>
-  <si>
-    <t>S20TL00576</t>
-  </si>
-  <si>
-    <t>S20TL00577</t>
-  </si>
-  <si>
-    <t>S20TL00578</t>
-  </si>
-  <si>
-    <t>S20TL00579</t>
-  </si>
-  <si>
-    <t>S20TL00580</t>
-  </si>
-  <si>
-    <t>S20TL00581</t>
-  </si>
-  <si>
-    <t>S20TL00582</t>
-  </si>
-  <si>
-    <t>S20TL00583</t>
-  </si>
-  <si>
-    <t>S20TL00584</t>
-  </si>
-  <si>
-    <t>S20TL00585</t>
-  </si>
-  <si>
-    <t>S20TL00586</t>
-  </si>
-  <si>
-    <t>S20TL00587</t>
-  </si>
-  <si>
-    <t>S20TL00588</t>
-  </si>
-  <si>
-    <t>S20TL00589</t>
-  </si>
-  <si>
-    <t>S20TL00590</t>
-  </si>
-  <si>
-    <t>S20TL00591</t>
-  </si>
-  <si>
-    <t>S20TL00592</t>
-  </si>
-  <si>
-    <t>S20TL00593</t>
-  </si>
-  <si>
-    <t>S20TL00594</t>
-  </si>
-  <si>
-    <t>S20TL00595</t>
-  </si>
-  <si>
-    <t>S20TL00596</t>
-  </si>
-  <si>
-    <t>S20TL00597</t>
-  </si>
-  <si>
-    <t>S20TL00598</t>
-  </si>
-  <si>
-    <t>S20TL00599</t>
-  </si>
-  <si>
-    <t>S20TL00600</t>
-  </si>
-  <si>
-    <t>S20TL00601</t>
-  </si>
-  <si>
-    <t>S20TL00602</t>
-  </si>
-  <si>
-    <t>S20TL00603</t>
-  </si>
-  <si>
-    <t>S20TL00604</t>
-  </si>
-  <si>
-    <t>S20TL00605</t>
-  </si>
-  <si>
-    <t>S20TL00606</t>
-  </si>
-  <si>
-    <t>S20TL00607</t>
-  </si>
-  <si>
-    <t>S20TL00608</t>
-  </si>
-  <si>
-    <t>S20TL00609</t>
-  </si>
-  <si>
-    <t>S20TL00610</t>
-  </si>
-  <si>
-    <t>S20TL00611</t>
-  </si>
-  <si>
-    <t>S20TL00612</t>
-  </si>
-  <si>
-    <t>S20TL00613</t>
-  </si>
-  <si>
-    <t>S20TL00614</t>
-  </si>
-  <si>
-    <t>S20TL00615</t>
-  </si>
-  <si>
-    <t>S20TL00616</t>
-  </si>
-  <si>
-    <t>S20TL00617</t>
-  </si>
-  <si>
-    <t>S20TL00618</t>
-  </si>
-  <si>
-    <t>S20TL00619</t>
-  </si>
-  <si>
-    <t>S20TL00620</t>
-  </si>
-  <si>
-    <t>S20TL00621</t>
-  </si>
-  <si>
-    <t>S20TL00622</t>
-  </si>
-  <si>
-    <t>S20TL00623</t>
-  </si>
-  <si>
-    <t>S20TL00624</t>
-  </si>
-  <si>
-    <t>S20TL00625</t>
-  </si>
-  <si>
-    <t>S20TL00626</t>
-  </si>
-  <si>
-    <t>S20TL00627</t>
-  </si>
-  <si>
-    <t>S20TL00628</t>
-  </si>
-  <si>
-    <t>S20TL00629</t>
-  </si>
-  <si>
-    <t>S20TL00630</t>
-  </si>
-  <si>
-    <t>S20TL00631</t>
-  </si>
-  <si>
-    <t>S20TL00632</t>
-  </si>
-  <si>
-    <t>S20TL00633</t>
-  </si>
-  <si>
-    <t>S20TL00634</t>
-  </si>
-  <si>
-    <t>S20TL00635</t>
-  </si>
-  <si>
-    <t>S20TL00636</t>
-  </si>
-  <si>
-    <t>S20TL00637</t>
-  </si>
-  <si>
-    <t>S20TL00638</t>
-  </si>
-  <si>
-    <t>S20TL00639</t>
-  </si>
-  <si>
-    <t>S20TL00640</t>
-  </si>
-  <si>
-    <t>S20TL00641</t>
-  </si>
-  <si>
-    <t>S20TL00642</t>
-  </si>
-  <si>
-    <t>S20TL00643</t>
-  </si>
-  <si>
-    <t>S20TL00644</t>
-  </si>
-  <si>
-    <t>S20TL00645</t>
-  </si>
-  <si>
-    <t>S20TL00646</t>
-  </si>
-  <si>
-    <t>S20TL00647</t>
-  </si>
-  <si>
-    <t>S20TL00648</t>
-  </si>
-  <si>
-    <t>S20TL00649</t>
-  </si>
-  <si>
-    <t>S20TL00650</t>
-  </si>
-  <si>
-    <t>S20TL00651</t>
-  </si>
-  <si>
-    <t>S20TL00652</t>
-  </si>
-  <si>
-    <t>S20TL00653</t>
-  </si>
-  <si>
-    <t>S20TL00654</t>
-  </si>
-  <si>
-    <t>S20TL00655</t>
-  </si>
-  <si>
-    <t>S20TL00656</t>
-  </si>
-  <si>
-    <t>S20TL00657</t>
-  </si>
-  <si>
-    <t>S20TL00658</t>
-  </si>
-  <si>
-    <t>S20TL00659</t>
-  </si>
-  <si>
-    <t>S20TL00660</t>
-  </si>
-  <si>
-    <t>S20TL00661</t>
-  </si>
-  <si>
-    <t>S20TL00662</t>
-  </si>
-  <si>
-    <t>S20TL00663</t>
-  </si>
-  <si>
-    <t>S20TL00664</t>
-  </si>
-  <si>
-    <t>S20TL00665</t>
-  </si>
-  <si>
-    <t>S20TL00666</t>
-  </si>
-  <si>
-    <t>S20TL00667</t>
-  </si>
-  <si>
-    <t>S20TL00668</t>
-  </si>
-  <si>
-    <t>S20TL00669</t>
-  </si>
-  <si>
-    <t>S20TL00670</t>
-  </si>
-  <si>
-    <t>S20TL00671</t>
-  </si>
-  <si>
-    <t>S20TL00672</t>
-  </si>
-  <si>
-    <t>S20TL00673</t>
-  </si>
-  <si>
-    <t>S20TL00674</t>
-  </si>
-  <si>
-    <t>S20TL00675</t>
-  </si>
-  <si>
-    <t>S20TL00676</t>
-  </si>
-  <si>
-    <t>S20TL00677</t>
-  </si>
-  <si>
-    <t>S20TL00678</t>
-  </si>
-  <si>
-    <t>S20TL00679</t>
-  </si>
-  <si>
-    <t>S20TL00680</t>
-  </si>
-  <si>
-    <t>S20TL00681</t>
-  </si>
-  <si>
-    <t>S20TL00682</t>
-  </si>
-  <si>
-    <t>S20TL00683</t>
-  </si>
-  <si>
-    <t>S20TL00684</t>
-  </si>
-  <si>
-    <t>S20TL00685</t>
-  </si>
-  <si>
-    <t>S20TL00686</t>
-  </si>
-  <si>
-    <t>S20TL00687</t>
-  </si>
-  <si>
-    <t>S20TL00688</t>
-  </si>
-  <si>
-    <t>S20TL00689</t>
-  </si>
-  <si>
-    <t>S20TL00690</t>
-  </si>
-  <si>
-    <t>S20TL00691</t>
-  </si>
-  <si>
-    <t>S20TL00692</t>
-  </si>
-  <si>
-    <t>S20TL00693</t>
-  </si>
-  <si>
-    <t>S20TL00694</t>
-  </si>
-  <si>
-    <t>S20TL00695</t>
-  </si>
-  <si>
-    <t>S20TL00696</t>
-  </si>
-  <si>
-    <t>S20TL00697</t>
-  </si>
-  <si>
-    <t>S20TL00698</t>
-  </si>
-  <si>
-    <t>S20TL00699</t>
-  </si>
-  <si>
-    <t>S20TL00700</t>
-  </si>
-  <si>
-    <t>S20TL00701</t>
-  </si>
-  <si>
-    <t>S20TL00702</t>
-  </si>
-  <si>
-    <t>S20TL00703</t>
-  </si>
-  <si>
-    <t>S20TL00704</t>
-  </si>
-  <si>
-    <t>S20TL00705</t>
-  </si>
-  <si>
-    <t>S20TL00706</t>
-  </si>
-  <si>
-    <t>S20TL00707</t>
-  </si>
-  <si>
-    <t>S20TL00708</t>
-  </si>
-  <si>
-    <t>S20TL00709</t>
-  </si>
-  <si>
-    <t>S20TL00710</t>
-  </si>
-  <si>
-    <t>S20TL00711</t>
-  </si>
-  <si>
-    <t>S20TL00712</t>
-  </si>
-  <si>
-    <t>S20TL00713</t>
-  </si>
-  <si>
-    <t>S20TL00714</t>
-  </si>
-  <si>
-    <t>S20TL00715</t>
-  </si>
-  <si>
-    <t>S20TL00716</t>
-  </si>
-  <si>
-    <t>S20TL00717</t>
-  </si>
-  <si>
-    <t>S20TL00718</t>
-  </si>
-  <si>
-    <t>S20TL00719</t>
-  </si>
-  <si>
-    <t>S20TL00720</t>
-  </si>
-  <si>
-    <t>S20TL00721</t>
-  </si>
-  <si>
-    <t>S20TL00722</t>
-  </si>
-  <si>
-    <t>S20TL00723</t>
-  </si>
-  <si>
-    <t>S20TL00724</t>
-  </si>
-  <si>
-    <t>S20TL00725</t>
-  </si>
-  <si>
-    <t>S20TL00726</t>
-  </si>
-  <si>
-    <t>S20TL00727</t>
-  </si>
-  <si>
-    <t>S20TL00728</t>
-  </si>
-  <si>
-    <t>S20TL00729</t>
-  </si>
-  <si>
-    <t>S20TL00730</t>
-  </si>
-  <si>
-    <t>S20TL00731</t>
-  </si>
-  <si>
-    <t>S20TL00732</t>
-  </si>
-  <si>
-    <t>S20TL00733</t>
-  </si>
-  <si>
-    <t>S20TL00734</t>
-  </si>
-  <si>
-    <t>S20TL00735</t>
-  </si>
-  <si>
-    <t>S20TL00736</t>
-  </si>
-  <si>
-    <t>S20TL00737</t>
-  </si>
-  <si>
-    <t>S20TL00738</t>
-  </si>
-  <si>
-    <t>S20TL00739</t>
-  </si>
-  <si>
-    <t>S20TL00740</t>
-  </si>
-  <si>
-    <t>S20TL00741</t>
-  </si>
-  <si>
-    <t>S20TL00742</t>
-  </si>
-  <si>
-    <t>S20TL00743</t>
-  </si>
-  <si>
-    <t>S20TL00744</t>
-  </si>
-  <si>
-    <t>S20TL00745</t>
-  </si>
-  <si>
-    <t>S20TL00746</t>
-  </si>
-  <si>
-    <t>S20TL00747</t>
-  </si>
-  <si>
-    <t>S20TL00748</t>
-  </si>
-  <si>
-    <t>S20TL00749</t>
-  </si>
-  <si>
-    <t>S20TL00750</t>
-  </si>
-  <si>
-    <t>S20TL00751</t>
-  </si>
-  <si>
-    <t>S20TL00752</t>
-  </si>
-  <si>
-    <t>S20TL00753</t>
-  </si>
-  <si>
-    <t>S20TL00754</t>
-  </si>
-  <si>
-    <t>S20TL00755</t>
-  </si>
-  <si>
-    <t>S20TL00756</t>
-  </si>
-  <si>
-    <t>S20TL00757</t>
-  </si>
-  <si>
-    <t>S20TL00758</t>
-  </si>
-  <si>
-    <t>S20TL00759</t>
-  </si>
-  <si>
-    <t>S20TL00760</t>
-  </si>
-  <si>
-    <t>S20TL00761</t>
-  </si>
-  <si>
-    <t>S20TL00762</t>
-  </si>
-  <si>
-    <t>S20TL00763</t>
-  </si>
-  <si>
-    <t>S20TL00764</t>
-  </si>
-  <si>
-    <t>S20TL00765</t>
-  </si>
-  <si>
-    <t>S20TL00766</t>
-  </si>
-  <si>
-    <t>S20TL00767</t>
-  </si>
-  <si>
-    <t>S20TL00768</t>
-  </si>
-  <si>
-    <t>S20TL00769</t>
-  </si>
-  <si>
-    <t>S20TL00770</t>
-  </si>
-  <si>
-    <t>S20TL00771</t>
-  </si>
-  <si>
-    <t>S20TL00772</t>
-  </si>
-  <si>
-    <t>S20TL00773</t>
-  </si>
-  <si>
-    <t>S20TL00774</t>
-  </si>
-  <si>
-    <t>S20TL00775</t>
-  </si>
-  <si>
-    <t>S20TL00776</t>
-  </si>
-  <si>
-    <t>S20TL00777</t>
-  </si>
-  <si>
-    <t>S20TL00778</t>
-  </si>
-  <si>
-    <t>S20TL00779</t>
-  </si>
-  <si>
-    <t>S20TL00780</t>
-  </si>
-  <si>
-    <t>S20TL00781</t>
-  </si>
-  <si>
-    <t>S20TL00782</t>
-  </si>
-  <si>
-    <t>S20TL00783</t>
-  </si>
-  <si>
-    <t>S20TL00784</t>
-  </si>
-  <si>
-    <t>S20TL00785</t>
-  </si>
-  <si>
-    <t>S20TL00786</t>
-  </si>
-  <si>
-    <t>S20TL00787</t>
-  </si>
-  <si>
-    <t>S20TL00788</t>
-  </si>
-  <si>
-    <t>S20TL00789</t>
-  </si>
-  <si>
-    <t>S20TL00790</t>
-  </si>
-  <si>
-    <t>S20TL00791</t>
-  </si>
-  <si>
-    <t>S20TL00792</t>
-  </si>
-  <si>
-    <t>S20TL00793</t>
-  </si>
-  <si>
-    <t>S20TL00794</t>
-  </si>
-  <si>
-    <t>S20TL00795</t>
-  </si>
-  <si>
-    <t>S20TL00796</t>
-  </si>
-  <si>
-    <t>S20TL00797</t>
-  </si>
-  <si>
-    <t>S20TL00798</t>
-  </si>
-  <si>
-    <t>S20TL00799</t>
-  </si>
-  <si>
-    <t>S20TL00800</t>
-  </si>
-  <si>
-    <t>S20TL00801</t>
-  </si>
-  <si>
-    <t>S20TL00802</t>
-  </si>
-  <si>
-    <t>S20TL00803</t>
-  </si>
-  <si>
-    <t>S20TL00804</t>
-  </si>
-  <si>
-    <t>S20TL00805</t>
-  </si>
-  <si>
-    <t>S20TL00806</t>
-  </si>
-  <si>
-    <t>S20TL00807</t>
-  </si>
-  <si>
-    <t>S20TL00808</t>
-  </si>
-  <si>
-    <t>S20TL00809</t>
-  </si>
-  <si>
-    <t>S20TL00810</t>
-  </si>
-  <si>
-    <t>S20TL00811</t>
-  </si>
-  <si>
-    <t>S20TL00812</t>
-  </si>
-  <si>
-    <t>S20TL00813</t>
-  </si>
-  <si>
-    <t>S20TL00814</t>
-  </si>
-  <si>
-    <t>S20TL00815</t>
-  </si>
-  <si>
-    <t>S20TL00816</t>
-  </si>
-  <si>
-    <t>S20TL00817</t>
-  </si>
-  <si>
-    <t>S20TL00818</t>
-  </si>
-  <si>
-    <t>S20TL00819</t>
-  </si>
-  <si>
-    <t>S20TL00820</t>
-  </si>
-  <si>
-    <t>S20TL00821</t>
-  </si>
-  <si>
-    <t>S20TL00822</t>
-  </si>
-  <si>
-    <t>S20TL00823</t>
-  </si>
-  <si>
-    <t>S20TL00824</t>
-  </si>
-  <si>
-    <t>S20TL00825</t>
-  </si>
-  <si>
-    <t>S20TL00826</t>
-  </si>
-  <si>
-    <t>S20TL00827</t>
-  </si>
-  <si>
-    <t>S20TL00828</t>
-  </si>
-  <si>
-    <t>S20TL00829</t>
-  </si>
-  <si>
-    <t>S20TL00830</t>
-  </si>
-  <si>
-    <t>S20TL00831</t>
-  </si>
-  <si>
-    <t>S20TL00832</t>
-  </si>
-  <si>
-    <t>S20TL00833</t>
-  </si>
-  <si>
-    <t>S20TL00834</t>
-  </si>
-  <si>
-    <t>S20TL00835</t>
-  </si>
-  <si>
-    <t>S20TL00836</t>
-  </si>
-  <si>
-    <t>S20TL00837</t>
-  </si>
-  <si>
-    <t>S20TL00838</t>
-  </si>
-  <si>
-    <t>S20TL00839</t>
-  </si>
-  <si>
-    <t>S20TL00840</t>
-  </si>
-  <si>
-    <t>S20TL00841</t>
-  </si>
-  <si>
-    <t>S20TL00842</t>
-  </si>
-  <si>
-    <t>S20TL00843</t>
-  </si>
-  <si>
-    <t>S20TL00844</t>
-  </si>
-  <si>
-    <t>S20TL00845</t>
-  </si>
-  <si>
-    <t>S20TL00846</t>
-  </si>
-  <si>
-    <t>S20TL00847</t>
-  </si>
-  <si>
-    <t>S20TL00848</t>
-  </si>
-  <si>
-    <t>S20TL00849</t>
-  </si>
-  <si>
-    <t>S20TL00850</t>
-  </si>
-  <si>
-    <t>S20TL00851</t>
-  </si>
-  <si>
-    <t>S20TL00852</t>
-  </si>
-  <si>
-    <t>S20TL00853</t>
-  </si>
-  <si>
-    <t>S20TL00854</t>
-  </si>
-  <si>
-    <t>S20TL00855</t>
-  </si>
-  <si>
-    <t>S20TL00856</t>
-  </si>
-  <si>
-    <t>S20TL00857</t>
-  </si>
-  <si>
-    <t>S20TL00858</t>
-  </si>
-  <si>
-    <t>S20TL00859</t>
-  </si>
-  <si>
-    <t>S20TL00860</t>
-  </si>
-  <si>
-    <t>S20TL00861</t>
-  </si>
-  <si>
-    <t>S20TL00862</t>
-  </si>
-  <si>
-    <t>S20TL00863</t>
-  </si>
-  <si>
-    <t>S20TL00864</t>
-  </si>
-  <si>
-    <t>S20TL00865</t>
-  </si>
-  <si>
-    <t>S20TL00866</t>
-  </si>
-  <si>
-    <t>S20TL00867</t>
-  </si>
-  <si>
-    <t>S20TL00868</t>
-  </si>
-  <si>
-    <t>S20TL00869</t>
-  </si>
-  <si>
-    <t>S20TL00870</t>
-  </si>
-  <si>
-    <t>S20TL00871</t>
-  </si>
-  <si>
-    <t>S20TL00872</t>
-  </si>
-  <si>
-    <t>S20TL00873</t>
-  </si>
-  <si>
-    <t>S20TL00874</t>
-  </si>
-  <si>
-    <t>S20TL00875</t>
-  </si>
-  <si>
-    <t>S20TL00876</t>
-  </si>
-  <si>
-    <t>S20TL00877</t>
-  </si>
-  <si>
-    <t>S20TL00878</t>
-  </si>
-  <si>
-    <t>S20TL00879</t>
-  </si>
-  <si>
-    <t>S20TL00880</t>
-  </si>
-  <si>
-    <t>S20TL00881</t>
-  </si>
-  <si>
-    <t>S20TL00882</t>
-  </si>
-  <si>
-    <t>S20TL00883</t>
-  </si>
-  <si>
-    <t>S20TL00884</t>
-  </si>
-  <si>
-    <t>S20TL00885</t>
-  </si>
-  <si>
-    <t>S20TL00886</t>
-  </si>
-  <si>
-    <t>S20TL00887</t>
-  </si>
-  <si>
-    <t>S20TL00888</t>
-  </si>
-  <si>
-    <t>S20TL00889</t>
-  </si>
-  <si>
-    <t>S20TL00890</t>
-  </si>
-  <si>
-    <t>S20TL00891</t>
-  </si>
-  <si>
-    <t>S20TL00892</t>
-  </si>
-  <si>
-    <t>S20TL00893</t>
-  </si>
-  <si>
-    <t>S20TL00894</t>
-  </si>
-  <si>
-    <t>S20TL00895</t>
-  </si>
-  <si>
-    <t>S20TL00896</t>
-  </si>
-  <si>
-    <t>S20TL00897</t>
-  </si>
-  <si>
-    <t>S20TL00898</t>
-  </si>
-  <si>
-    <t>S20TL00899</t>
-  </si>
-  <si>
-    <t>S20TL00900</t>
-  </si>
-  <si>
-    <t>S20TL00901</t>
-  </si>
-  <si>
-    <t>S20TL00902</t>
-  </si>
-  <si>
-    <t>S20TL00903</t>
-  </si>
-  <si>
-    <t>S20TL00904</t>
-  </si>
-  <si>
-    <t>S20TL00905</t>
-  </si>
-  <si>
-    <t>S20TL00906</t>
-  </si>
-  <si>
-    <t>S20TL00907</t>
-  </si>
-  <si>
-    <t>S20TL00908</t>
-  </si>
-  <si>
-    <t>S20TL00909</t>
-  </si>
-  <si>
-    <t>S20TL00910</t>
-  </si>
-  <si>
-    <t>S20TL00911</t>
-  </si>
-  <si>
-    <t>S20TL00912</t>
-  </si>
-  <si>
-    <t>S20TL00913</t>
-  </si>
-  <si>
-    <t>S20TL00914</t>
-  </si>
-  <si>
-    <t>S20TL00915</t>
-  </si>
-  <si>
-    <t>S20TL00916</t>
-  </si>
-  <si>
-    <t>S20TL00917</t>
-  </si>
-  <si>
-    <t>S20TL00918</t>
-  </si>
-  <si>
-    <t>S20TL00919</t>
-  </si>
-  <si>
-    <t>S20TL00920</t>
-  </si>
-  <si>
-    <t>S20TL00921</t>
-  </si>
-  <si>
-    <t>S20TL00922</t>
-  </si>
-  <si>
-    <t>S20TL00923</t>
-  </si>
-  <si>
-    <t>S20TL00924</t>
-  </si>
-  <si>
-    <t>S20TL00925</t>
-  </si>
-  <si>
-    <t>S20TL00926</t>
-  </si>
-  <si>
-    <t>S20TL00927</t>
-  </si>
-  <si>
-    <t>S20TL00928</t>
-  </si>
-  <si>
-    <t>S20TL00929</t>
-  </si>
-  <si>
-    <t>S20TL00930</t>
-  </si>
-  <si>
-    <t>S20TL00931</t>
-  </si>
-  <si>
-    <t>S20TL00932</t>
-  </si>
-  <si>
-    <t>S20TL00933</t>
-  </si>
-  <si>
-    <t>S20TL00934</t>
-  </si>
-  <si>
-    <t>S20TL00935</t>
-  </si>
-  <si>
-    <t>S20TL00936</t>
-  </si>
-  <si>
-    <t>S20TL00937</t>
-  </si>
-  <si>
-    <t>S20TL00938</t>
-  </si>
-  <si>
-    <t>S20TL00939</t>
-  </si>
-  <si>
-    <t>S20TL00940</t>
-  </si>
-  <si>
-    <t>S20TL00941</t>
-  </si>
-  <si>
-    <t>S20TL00942</t>
-  </si>
-  <si>
-    <t>S20TL00943</t>
-  </si>
-  <si>
-    <t>S20TL00944</t>
-  </si>
-  <si>
-    <t>S20TL00945</t>
-  </si>
-  <si>
-    <t>S20TL00946</t>
-  </si>
-  <si>
-    <t>S20TL00947</t>
-  </si>
-  <si>
-    <t>S20TL00948</t>
-  </si>
-  <si>
-    <t>S20TL00949</t>
-  </si>
-  <si>
-    <t>S20TL00950</t>
-  </si>
-  <si>
-    <t>S20TL00951</t>
-  </si>
-  <si>
-    <t>S20TL00952</t>
-  </si>
-  <si>
-    <t>S20TL00953</t>
-  </si>
-  <si>
-    <t>S20TL00954</t>
-  </si>
-  <si>
-    <t>S20TL00955</t>
-  </si>
-  <si>
-    <t>S20TL00956</t>
-  </si>
-  <si>
-    <t>S20TL00957</t>
-  </si>
-  <si>
-    <t>S20TL00958</t>
-  </si>
-  <si>
-    <t>S20TL00959</t>
-  </si>
-  <si>
-    <t>S20TL00960</t>
-  </si>
-  <si>
-    <t>S20TL00961</t>
-  </si>
-  <si>
-    <t>S20TL00962</t>
-  </si>
-  <si>
-    <t>S20TL00963</t>
-  </si>
-  <si>
-    <t>S20TL00964</t>
-  </si>
-  <si>
-    <t>S20TL00965</t>
-  </si>
-  <si>
-    <t>S20TL00966</t>
-  </si>
-  <si>
-    <t>S20TL00967</t>
-  </si>
-  <si>
-    <t>S20TL00968</t>
-  </si>
-  <si>
-    <t>S20TL00969</t>
-  </si>
-  <si>
-    <t>S20TL00970</t>
-  </si>
-  <si>
-    <t>S20TL00971</t>
-  </si>
-  <si>
-    <t>S20TL00972</t>
-  </si>
-  <si>
-    <t>S20TL00973</t>
-  </si>
-  <si>
-    <t>S20TL00974</t>
-  </si>
-  <si>
-    <t>S20TL00975</t>
-  </si>
-  <si>
-    <t>S20TL00976</t>
-  </si>
-  <si>
-    <t>S20TL00977</t>
-  </si>
-  <si>
-    <t>S20TL00978</t>
-  </si>
-  <si>
-    <t>S20TL00979</t>
-  </si>
-  <si>
-    <t>S20TL00980</t>
-  </si>
-  <si>
-    <t>S20TL00981</t>
-  </si>
-  <si>
-    <t>S20TL00982</t>
-  </si>
-  <si>
-    <t>S20TL00983</t>
-  </si>
-  <si>
-    <t>S20TL00984</t>
-  </si>
-  <si>
-    <t>S20TL00985</t>
-  </si>
-  <si>
-    <t>S20TL00986</t>
-  </si>
-  <si>
-    <t>S20TL00987</t>
-  </si>
-  <si>
-    <t>S20TL00988</t>
-  </si>
-  <si>
-    <t>S20TL00989</t>
-  </si>
-  <si>
-    <t>S20TL00990</t>
-  </si>
-  <si>
-    <t>S20TL00991</t>
-  </si>
-  <si>
-    <t>S20TL00992</t>
-  </si>
-  <si>
-    <t>S20TL00993</t>
-  </si>
-  <si>
-    <t>S20TL00994</t>
-  </si>
-  <si>
-    <t>S20TL00995</t>
-  </si>
-  <si>
-    <t>S20TL00996</t>
-  </si>
-  <si>
-    <t>S20TL00997</t>
-  </si>
-  <si>
-    <t>S20TL00998</t>
-  </si>
-  <si>
-    <t>S20TL00999</t>
-  </si>
-  <si>
-    <t>S20TL01000</t>
+    <t>S20TL01001</t>
+  </si>
+  <si>
+    <t>S20TL01002</t>
+  </si>
+  <si>
+    <t>S20TL01003</t>
+  </si>
+  <si>
+    <t>S20TL01004</t>
+  </si>
+  <si>
+    <t>S20TL01005</t>
+  </si>
+  <si>
+    <t>S20TL01006</t>
+  </si>
+  <si>
+    <t>S20TL01007</t>
+  </si>
+  <si>
+    <t>S20TL01008</t>
+  </si>
+  <si>
+    <t>S20TL01009</t>
+  </si>
+  <si>
+    <t>S20TL01010</t>
+  </si>
+  <si>
+    <t>S20TL01011</t>
+  </si>
+  <si>
+    <t>S20TL01012</t>
+  </si>
+  <si>
+    <t>S20TL01013</t>
+  </si>
+  <si>
+    <t>S20TL01014</t>
+  </si>
+  <si>
+    <t>S20TL01015</t>
+  </si>
+  <si>
+    <t>S20TL01016</t>
+  </si>
+  <si>
+    <t>S20TL01017</t>
+  </si>
+  <si>
+    <t>S20TL01018</t>
+  </si>
+  <si>
+    <t>S20TL01019</t>
+  </si>
+  <si>
+    <t>S20TL01020</t>
+  </si>
+  <si>
+    <t>S20TL01021</t>
+  </si>
+  <si>
+    <t>S20TL01022</t>
+  </si>
+  <si>
+    <t>S20TL01023</t>
+  </si>
+  <si>
+    <t>S20TL01024</t>
+  </si>
+  <si>
+    <t>S20TL01025</t>
+  </si>
+  <si>
+    <t>S20TL01026</t>
+  </si>
+  <si>
+    <t>S20TL01027</t>
+  </si>
+  <si>
+    <t>S20TL01028</t>
+  </si>
+  <si>
+    <t>S20TL01029</t>
+  </si>
+  <si>
+    <t>S20TL01030</t>
+  </si>
+  <si>
+    <t>S20TL01031</t>
+  </si>
+  <si>
+    <t>S20TL01032</t>
+  </si>
+  <si>
+    <t>S20TL01033</t>
+  </si>
+  <si>
+    <t>S20TL01034</t>
+  </si>
+  <si>
+    <t>S20TL01035</t>
+  </si>
+  <si>
+    <t>S20TL01036</t>
+  </si>
+  <si>
+    <t>S20TL01037</t>
+  </si>
+  <si>
+    <t>S20TL01038</t>
+  </si>
+  <si>
+    <t>S20TL01039</t>
+  </si>
+  <si>
+    <t>S20TL01040</t>
+  </si>
+  <si>
+    <t>S20TL01041</t>
+  </si>
+  <si>
+    <t>S20TL01042</t>
+  </si>
+  <si>
+    <t>S20TL01043</t>
+  </si>
+  <si>
+    <t>S20TL01044</t>
+  </si>
+  <si>
+    <t>S20TL01045</t>
+  </si>
+  <si>
+    <t>S20TL01046</t>
+  </si>
+  <si>
+    <t>S20TL01047</t>
+  </si>
+  <si>
+    <t>S20TL01048</t>
+  </si>
+  <si>
+    <t>S20TL01049</t>
+  </si>
+  <si>
+    <t>S20TL01050</t>
+  </si>
+  <si>
+    <t>S20TL01051</t>
+  </si>
+  <si>
+    <t>S20TL01052</t>
+  </si>
+  <si>
+    <t>S20TL01053</t>
+  </si>
+  <si>
+    <t>S20TL01054</t>
+  </si>
+  <si>
+    <t>S20TL01055</t>
+  </si>
+  <si>
+    <t>S20TL01056</t>
+  </si>
+  <si>
+    <t>S20TL01057</t>
+  </si>
+  <si>
+    <t>S20TL01058</t>
+  </si>
+  <si>
+    <t>S20TL01059</t>
+  </si>
+  <si>
+    <t>S20TL01060</t>
+  </si>
+  <si>
+    <t>S20TL01061</t>
+  </si>
+  <si>
+    <t>S20TL01062</t>
+  </si>
+  <si>
+    <t>S20TL01063</t>
+  </si>
+  <si>
+    <t>S20TL01064</t>
+  </si>
+  <si>
+    <t>S20TL01065</t>
+  </si>
+  <si>
+    <t>S20TL01066</t>
+  </si>
+  <si>
+    <t>S20TL01067</t>
+  </si>
+  <si>
+    <t>S20TL01068</t>
+  </si>
+  <si>
+    <t>S20TL01069</t>
+  </si>
+  <si>
+    <t>S20TL01070</t>
+  </si>
+  <si>
+    <t>S20TL01071</t>
+  </si>
+  <si>
+    <t>S20TL01072</t>
+  </si>
+  <si>
+    <t>S20TL01073</t>
+  </si>
+  <si>
+    <t>S20TL01074</t>
+  </si>
+  <si>
+    <t>S20TL01075</t>
+  </si>
+  <si>
+    <t>S20TL01076</t>
+  </si>
+  <si>
+    <t>S20TL01077</t>
+  </si>
+  <si>
+    <t>S20TL01078</t>
+  </si>
+  <si>
+    <t>S20TL01079</t>
+  </si>
+  <si>
+    <t>S20TL01080</t>
+  </si>
+  <si>
+    <t>S20TL01081</t>
+  </si>
+  <si>
+    <t>S20TL01082</t>
+  </si>
+  <si>
+    <t>S20TL01083</t>
+  </si>
+  <si>
+    <t>S20TL01084</t>
+  </si>
+  <si>
+    <t>S20TL01085</t>
+  </si>
+  <si>
+    <t>S20TL01086</t>
+  </si>
+  <si>
+    <t>S20TL01087</t>
+  </si>
+  <si>
+    <t>S20TL01088</t>
+  </si>
+  <si>
+    <t>S20TL01089</t>
+  </si>
+  <si>
+    <t>S20TL01090</t>
+  </si>
+  <si>
+    <t>S20TL01091</t>
+  </si>
+  <si>
+    <t>S20TL01092</t>
+  </si>
+  <si>
+    <t>S20TL01093</t>
+  </si>
+  <si>
+    <t>S20TL01094</t>
+  </si>
+  <si>
+    <t>S20TL01095</t>
+  </si>
+  <si>
+    <t>S20TL01096</t>
+  </si>
+  <si>
+    <t>S20TL01097</t>
+  </si>
+  <si>
+    <t>S20TL01098</t>
+  </si>
+  <si>
+    <t>S20TL01099</t>
+  </si>
+  <si>
+    <t>S20TL01100</t>
+  </si>
+  <si>
+    <t>S20TL01101</t>
+  </si>
+  <si>
+    <t>S20TL01102</t>
+  </si>
+  <si>
+    <t>S20TL01103</t>
+  </si>
+  <si>
+    <t>S20TL01104</t>
+  </si>
+  <si>
+    <t>S20TL01105</t>
+  </si>
+  <si>
+    <t>S20TL01106</t>
+  </si>
+  <si>
+    <t>S20TL01107</t>
+  </si>
+  <si>
+    <t>S20TL01108</t>
+  </si>
+  <si>
+    <t>S20TL01109</t>
+  </si>
+  <si>
+    <t>S20TL01110</t>
+  </si>
+  <si>
+    <t>S20TL01111</t>
+  </si>
+  <si>
+    <t>S20TL01112</t>
+  </si>
+  <si>
+    <t>S20TL01113</t>
+  </si>
+  <si>
+    <t>S20TL01114</t>
+  </si>
+  <si>
+    <t>S20TL01115</t>
+  </si>
+  <si>
+    <t>S20TL01116</t>
+  </si>
+  <si>
+    <t>S20TL01117</t>
+  </si>
+  <si>
+    <t>S20TL01118</t>
+  </si>
+  <si>
+    <t>S20TL01119</t>
+  </si>
+  <si>
+    <t>S20TL01120</t>
+  </si>
+  <si>
+    <t>S20TL01121</t>
+  </si>
+  <si>
+    <t>S20TL01122</t>
+  </si>
+  <si>
+    <t>S20TL01123</t>
+  </si>
+  <si>
+    <t>S20TL01124</t>
+  </si>
+  <si>
+    <t>S20TL01125</t>
+  </si>
+  <si>
+    <t>S20TL01126</t>
+  </si>
+  <si>
+    <t>S20TL01127</t>
+  </si>
+  <si>
+    <t>S20TL01128</t>
+  </si>
+  <si>
+    <t>S20TL01129</t>
+  </si>
+  <si>
+    <t>S20TL01130</t>
+  </si>
+  <si>
+    <t>S20TL01131</t>
+  </si>
+  <si>
+    <t>S20TL01132</t>
+  </si>
+  <si>
+    <t>S20TL01133</t>
+  </si>
+  <si>
+    <t>S20TL01134</t>
+  </si>
+  <si>
+    <t>S20TL01135</t>
+  </si>
+  <si>
+    <t>S20TL01136</t>
+  </si>
+  <si>
+    <t>S20TL01137</t>
+  </si>
+  <si>
+    <t>S20TL01138</t>
+  </si>
+  <si>
+    <t>S20TL01139</t>
+  </si>
+  <si>
+    <t>S20TL01140</t>
+  </si>
+  <si>
+    <t>S20TL01141</t>
+  </si>
+  <si>
+    <t>S20TL01142</t>
+  </si>
+  <si>
+    <t>S20TL01143</t>
+  </si>
+  <si>
+    <t>S20TL01144</t>
+  </si>
+  <si>
+    <t>S20TL01145</t>
+  </si>
+  <si>
+    <t>S20TL01146</t>
+  </si>
+  <si>
+    <t>S20TL01147</t>
+  </si>
+  <si>
+    <t>S20TL01148</t>
+  </si>
+  <si>
+    <t>S20TL01149</t>
+  </si>
+  <si>
+    <t>S20TL01150</t>
+  </si>
+  <si>
+    <t>S20TL01151</t>
+  </si>
+  <si>
+    <t>S20TL01152</t>
+  </si>
+  <si>
+    <t>S20TL01153</t>
+  </si>
+  <si>
+    <t>S20TL01154</t>
+  </si>
+  <si>
+    <t>S20TL01155</t>
+  </si>
+  <si>
+    <t>S20TL01156</t>
+  </si>
+  <si>
+    <t>S20TL01157</t>
+  </si>
+  <si>
+    <t>S20TL01158</t>
+  </si>
+  <si>
+    <t>S20TL01159</t>
+  </si>
+  <si>
+    <t>S20TL01160</t>
+  </si>
+  <si>
+    <t>S20TL01161</t>
+  </si>
+  <si>
+    <t>S20TL01162</t>
+  </si>
+  <si>
+    <t>S20TL01163</t>
+  </si>
+  <si>
+    <t>S20TL01164</t>
+  </si>
+  <si>
+    <t>S20TL01165</t>
+  </si>
+  <si>
+    <t>S20TL01166</t>
+  </si>
+  <si>
+    <t>S20TL01167</t>
+  </si>
+  <si>
+    <t>S20TL01168</t>
+  </si>
+  <si>
+    <t>S20TL01169</t>
+  </si>
+  <si>
+    <t>S20TL01170</t>
+  </si>
+  <si>
+    <t>S20TL01171</t>
+  </si>
+  <si>
+    <t>S20TL01172</t>
+  </si>
+  <si>
+    <t>S20TL01173</t>
+  </si>
+  <si>
+    <t>S20TL01174</t>
+  </si>
+  <si>
+    <t>S20TL01175</t>
+  </si>
+  <si>
+    <t>S20TL01176</t>
+  </si>
+  <si>
+    <t>S20TL01177</t>
+  </si>
+  <si>
+    <t>S20TL01178</t>
+  </si>
+  <si>
+    <t>S20TL01179</t>
+  </si>
+  <si>
+    <t>S20TL01180</t>
+  </si>
+  <si>
+    <t>S20TL01181</t>
+  </si>
+  <si>
+    <t>S20TL01182</t>
+  </si>
+  <si>
+    <t>S20TL01183</t>
+  </si>
+  <si>
+    <t>S20TL01184</t>
+  </si>
+  <si>
+    <t>S20TL01185</t>
+  </si>
+  <si>
+    <t>S20TL01186</t>
+  </si>
+  <si>
+    <t>S20TL01187</t>
+  </si>
+  <si>
+    <t>S20TL01188</t>
+  </si>
+  <si>
+    <t>S20TL01189</t>
+  </si>
+  <si>
+    <t>S20TL01190</t>
+  </si>
+  <si>
+    <t>S20TL01191</t>
+  </si>
+  <si>
+    <t>S20TL01192</t>
+  </si>
+  <si>
+    <t>S20TL01193</t>
+  </si>
+  <si>
+    <t>S20TL01194</t>
+  </si>
+  <si>
+    <t>S20TL01195</t>
+  </si>
+  <si>
+    <t>S20TL01196</t>
+  </si>
+  <si>
+    <t>S20TL01197</t>
+  </si>
+  <si>
+    <t>S20TL01198</t>
+  </si>
+  <si>
+    <t>S20TL01199</t>
+  </si>
+  <si>
+    <t>S20TL01200</t>
+  </si>
+  <si>
+    <t>S20TL01201</t>
+  </si>
+  <si>
+    <t>S20TL01202</t>
+  </si>
+  <si>
+    <t>S20TL01203</t>
+  </si>
+  <si>
+    <t>S20TL01204</t>
+  </si>
+  <si>
+    <t>S20TL01205</t>
+  </si>
+  <si>
+    <t>S20TL01206</t>
+  </si>
+  <si>
+    <t>S20TL01207</t>
+  </si>
+  <si>
+    <t>S20TL01208</t>
+  </si>
+  <si>
+    <t>S20TL01209</t>
+  </si>
+  <si>
+    <t>S20TL01210</t>
+  </si>
+  <si>
+    <t>S20TL01211</t>
+  </si>
+  <si>
+    <t>S20TL01212</t>
+  </si>
+  <si>
+    <t>S20TL01213</t>
+  </si>
+  <si>
+    <t>S20TL01214</t>
+  </si>
+  <si>
+    <t>S20TL01215</t>
+  </si>
+  <si>
+    <t>S20TL01216</t>
+  </si>
+  <si>
+    <t>S20TL01217</t>
+  </si>
+  <si>
+    <t>S20TL01218</t>
+  </si>
+  <si>
+    <t>S20TL01219</t>
+  </si>
+  <si>
+    <t>S20TL01220</t>
+  </si>
+  <si>
+    <t>S20TL01221</t>
+  </si>
+  <si>
+    <t>S20TL01222</t>
+  </si>
+  <si>
+    <t>S20TL01223</t>
+  </si>
+  <si>
+    <t>S20TL01224</t>
+  </si>
+  <si>
+    <t>S20TL01225</t>
+  </si>
+  <si>
+    <t>S20TL01226</t>
+  </si>
+  <si>
+    <t>S20TL01227</t>
+  </si>
+  <si>
+    <t>S20TL01228</t>
+  </si>
+  <si>
+    <t>S20TL01229</t>
+  </si>
+  <si>
+    <t>S20TL01230</t>
+  </si>
+  <si>
+    <t>S20TL01231</t>
+  </si>
+  <si>
+    <t>S20TL01232</t>
+  </si>
+  <si>
+    <t>S20TL01233</t>
+  </si>
+  <si>
+    <t>S20TL01234</t>
+  </si>
+  <si>
+    <t>S20TL01235</t>
+  </si>
+  <si>
+    <t>S20TL01236</t>
+  </si>
+  <si>
+    <t>S20TL01237</t>
+  </si>
+  <si>
+    <t>S20TL01238</t>
+  </si>
+  <si>
+    <t>S20TL01239</t>
+  </si>
+  <si>
+    <t>S20TL01240</t>
+  </si>
+  <si>
+    <t>S20TL01241</t>
+  </si>
+  <si>
+    <t>S20TL01242</t>
+  </si>
+  <si>
+    <t>S20TL01243</t>
+  </si>
+  <si>
+    <t>S20TL01244</t>
+  </si>
+  <si>
+    <t>S20TL01245</t>
+  </si>
+  <si>
+    <t>S20TL01246</t>
+  </si>
+  <si>
+    <t>S20TL01247</t>
+  </si>
+  <si>
+    <t>S20TL01248</t>
+  </si>
+  <si>
+    <t>S20TL01249</t>
+  </si>
+  <si>
+    <t>S20TL01250</t>
+  </si>
+  <si>
+    <t>S20TL01251</t>
+  </si>
+  <si>
+    <t>S20TL01252</t>
+  </si>
+  <si>
+    <t>S20TL01253</t>
+  </si>
+  <si>
+    <t>S20TL01254</t>
+  </si>
+  <si>
+    <t>S20TL01255</t>
+  </si>
+  <si>
+    <t>S20TL01256</t>
+  </si>
+  <si>
+    <t>S20TL01257</t>
+  </si>
+  <si>
+    <t>S20TL01258</t>
+  </si>
+  <si>
+    <t>S20TL01259</t>
+  </si>
+  <si>
+    <t>S20TL01260</t>
+  </si>
+  <si>
+    <t>S20TL01261</t>
+  </si>
+  <si>
+    <t>S20TL01262</t>
+  </si>
+  <si>
+    <t>S20TL01263</t>
+  </si>
+  <si>
+    <t>S20TL01264</t>
+  </si>
+  <si>
+    <t>S20TL01265</t>
+  </si>
+  <si>
+    <t>S20TL01266</t>
+  </si>
+  <si>
+    <t>S20TL01267</t>
+  </si>
+  <si>
+    <t>S20TL01268</t>
+  </si>
+  <si>
+    <t>S20TL01269</t>
+  </si>
+  <si>
+    <t>S20TL01270</t>
+  </si>
+  <si>
+    <t>S20TL01271</t>
+  </si>
+  <si>
+    <t>S20TL01272</t>
+  </si>
+  <si>
+    <t>S20TL01273</t>
+  </si>
+  <si>
+    <t>S20TL01274</t>
+  </si>
+  <si>
+    <t>S20TL01275</t>
+  </si>
+  <si>
+    <t>S20TL01276</t>
+  </si>
+  <si>
+    <t>S20TL01277</t>
+  </si>
+  <si>
+    <t>S20TL01278</t>
+  </si>
+  <si>
+    <t>S20TL01279</t>
+  </si>
+  <si>
+    <t>S20TL01280</t>
+  </si>
+  <si>
+    <t>S20TL01281</t>
+  </si>
+  <si>
+    <t>S20TL01282</t>
+  </si>
+  <si>
+    <t>S20TL01283</t>
+  </si>
+  <si>
+    <t>S20TL01284</t>
+  </si>
+  <si>
+    <t>S20TL01285</t>
+  </si>
+  <si>
+    <t>S20TL01286</t>
+  </si>
+  <si>
+    <t>S20TL01287</t>
+  </si>
+  <si>
+    <t>S20TL01288</t>
+  </si>
+  <si>
+    <t>S20TL01289</t>
+  </si>
+  <si>
+    <t>S20TL01290</t>
+  </si>
+  <si>
+    <t>S20TL01291</t>
+  </si>
+  <si>
+    <t>S20TL01292</t>
+  </si>
+  <si>
+    <t>S20TL01293</t>
+  </si>
+  <si>
+    <t>S20TL01294</t>
+  </si>
+  <si>
+    <t>S20TL01295</t>
+  </si>
+  <si>
+    <t>S20TL01296</t>
+  </si>
+  <si>
+    <t>S20TL01297</t>
+  </si>
+  <si>
+    <t>S20TL01298</t>
+  </si>
+  <si>
+    <t>S20TL01299</t>
+  </si>
+  <si>
+    <t>S20TL01300</t>
+  </si>
+  <si>
+    <t>S20TL01301</t>
+  </si>
+  <si>
+    <t>S20TL01302</t>
+  </si>
+  <si>
+    <t>S20TL01303</t>
+  </si>
+  <si>
+    <t>S20TL01304</t>
+  </si>
+  <si>
+    <t>S20TL01305</t>
+  </si>
+  <si>
+    <t>S20TL01306</t>
+  </si>
+  <si>
+    <t>S20TL01307</t>
+  </si>
+  <si>
+    <t>S20TL01308</t>
+  </si>
+  <si>
+    <t>S20TL01309</t>
+  </si>
+  <si>
+    <t>S20TL01310</t>
+  </si>
+  <si>
+    <t>S20TL01311</t>
+  </si>
+  <si>
+    <t>S20TL01312</t>
+  </si>
+  <si>
+    <t>S20TL01313</t>
+  </si>
+  <si>
+    <t>S20TL01314</t>
+  </si>
+  <si>
+    <t>S20TL01315</t>
+  </si>
+  <si>
+    <t>S20TL01316</t>
+  </si>
+  <si>
+    <t>S20TL01317</t>
+  </si>
+  <si>
+    <t>S20TL01318</t>
+  </si>
+  <si>
+    <t>S20TL01319</t>
+  </si>
+  <si>
+    <t>S20TL01320</t>
+  </si>
+  <si>
+    <t>S20TL01321</t>
+  </si>
+  <si>
+    <t>S20TL01322</t>
+  </si>
+  <si>
+    <t>S20TL01323</t>
+  </si>
+  <si>
+    <t>S20TL01324</t>
+  </si>
+  <si>
+    <t>S20TL01325</t>
+  </si>
+  <si>
+    <t>S20TL01326</t>
+  </si>
+  <si>
+    <t>S20TL01327</t>
+  </si>
+  <si>
+    <t>S20TL01328</t>
+  </si>
+  <si>
+    <t>S20TL01329</t>
+  </si>
+  <si>
+    <t>S20TL01330</t>
+  </si>
+  <si>
+    <t>S20TL01331</t>
+  </si>
+  <si>
+    <t>S20TL01332</t>
+  </si>
+  <si>
+    <t>S20TL01333</t>
+  </si>
+  <si>
+    <t>S20TL01334</t>
+  </si>
+  <si>
+    <t>S20TL01335</t>
+  </si>
+  <si>
+    <t>S20TL01336</t>
+  </si>
+  <si>
+    <t>S20TL01337</t>
+  </si>
+  <si>
+    <t>S20TL01338</t>
+  </si>
+  <si>
+    <t>S20TL01339</t>
+  </si>
+  <si>
+    <t>S20TL01340</t>
+  </si>
+  <si>
+    <t>S20TL01341</t>
+  </si>
+  <si>
+    <t>S20TL01342</t>
+  </si>
+  <si>
+    <t>S20TL01343</t>
+  </si>
+  <si>
+    <t>S20TL01344</t>
+  </si>
+  <si>
+    <t>S20TL01345</t>
+  </si>
+  <si>
+    <t>S20TL01346</t>
+  </si>
+  <si>
+    <t>S20TL01347</t>
+  </si>
+  <si>
+    <t>S20TL01348</t>
+  </si>
+  <si>
+    <t>S20TL01349</t>
+  </si>
+  <si>
+    <t>S20TL01350</t>
+  </si>
+  <si>
+    <t>S20TL01351</t>
+  </si>
+  <si>
+    <t>S20TL01352</t>
+  </si>
+  <si>
+    <t>S20TL01353</t>
+  </si>
+  <si>
+    <t>S20TL01354</t>
+  </si>
+  <si>
+    <t>S20TL01355</t>
+  </si>
+  <si>
+    <t>S20TL01356</t>
+  </si>
+  <si>
+    <t>S20TL01357</t>
+  </si>
+  <si>
+    <t>S20TL01358</t>
+  </si>
+  <si>
+    <t>S20TL01359</t>
+  </si>
+  <si>
+    <t>S20TL01360</t>
+  </si>
+  <si>
+    <t>S20TL01361</t>
+  </si>
+  <si>
+    <t>S20TL01362</t>
+  </si>
+  <si>
+    <t>S20TL01363</t>
+  </si>
+  <si>
+    <t>S20TL01364</t>
+  </si>
+  <si>
+    <t>S20TL01365</t>
+  </si>
+  <si>
+    <t>S20TL01366</t>
+  </si>
+  <si>
+    <t>S20TL01367</t>
+  </si>
+  <si>
+    <t>S20TL01368</t>
+  </si>
+  <si>
+    <t>S20TL01369</t>
+  </si>
+  <si>
+    <t>S20TL01370</t>
+  </si>
+  <si>
+    <t>S20TL01371</t>
+  </si>
+  <si>
+    <t>S20TL01372</t>
+  </si>
+  <si>
+    <t>S20TL01373</t>
+  </si>
+  <si>
+    <t>S20TL01374</t>
+  </si>
+  <si>
+    <t>S20TL01375</t>
+  </si>
+  <si>
+    <t>S20TL01376</t>
+  </si>
+  <si>
+    <t>S20TL01377</t>
+  </si>
+  <si>
+    <t>S20TL01378</t>
+  </si>
+  <si>
+    <t>S20TL01379</t>
+  </si>
+  <si>
+    <t>S20TL01380</t>
+  </si>
+  <si>
+    <t>S20TL01381</t>
+  </si>
+  <si>
+    <t>S20TL01382</t>
+  </si>
+  <si>
+    <t>S20TL01383</t>
+  </si>
+  <si>
+    <t>S20TL01384</t>
+  </si>
+  <si>
+    <t>S20TL01385</t>
+  </si>
+  <si>
+    <t>S20TL01386</t>
+  </si>
+  <si>
+    <t>S20TL01387</t>
+  </si>
+  <si>
+    <t>S20TL01388</t>
+  </si>
+  <si>
+    <t>S20TL01389</t>
+  </si>
+  <si>
+    <t>S20TL01390</t>
+  </si>
+  <si>
+    <t>S20TL01391</t>
+  </si>
+  <si>
+    <t>S20TL01392</t>
+  </si>
+  <si>
+    <t>S20TL01393</t>
+  </si>
+  <si>
+    <t>S20TL01394</t>
+  </si>
+  <si>
+    <t>S20TL01395</t>
+  </si>
+  <si>
+    <t>S20TL01396</t>
+  </si>
+  <si>
+    <t>S20TL01397</t>
+  </si>
+  <si>
+    <t>S20TL01398</t>
+  </si>
+  <si>
+    <t>S20TL01399</t>
+  </si>
+  <si>
+    <t>S20TL01400</t>
+  </si>
+  <si>
+    <t>S20TL01401</t>
+  </si>
+  <si>
+    <t>S20TL01402</t>
+  </si>
+  <si>
+    <t>S20TL01403</t>
+  </si>
+  <si>
+    <t>S20TL01404</t>
+  </si>
+  <si>
+    <t>S20TL01405</t>
+  </si>
+  <si>
+    <t>S20TL01406</t>
+  </si>
+  <si>
+    <t>S20TL01407</t>
+  </si>
+  <si>
+    <t>S20TL01408</t>
+  </si>
+  <si>
+    <t>S20TL01409</t>
+  </si>
+  <si>
+    <t>S20TL01410</t>
+  </si>
+  <si>
+    <t>S20TL01411</t>
+  </si>
+  <si>
+    <t>S20TL01412</t>
+  </si>
+  <si>
+    <t>S20TL01413</t>
+  </si>
+  <si>
+    <t>S20TL01414</t>
+  </si>
+  <si>
+    <t>S20TL01415</t>
+  </si>
+  <si>
+    <t>S20TL01416</t>
+  </si>
+  <si>
+    <t>S20TL01417</t>
+  </si>
+  <si>
+    <t>S20TL01418</t>
+  </si>
+  <si>
+    <t>S20TL01419</t>
+  </si>
+  <si>
+    <t>S20TL01420</t>
+  </si>
+  <si>
+    <t>S20TL01421</t>
+  </si>
+  <si>
+    <t>S20TL01422</t>
+  </si>
+  <si>
+    <t>S20TL01423</t>
+  </si>
+  <si>
+    <t>S20TL01424</t>
+  </si>
+  <si>
+    <t>S20TL01425</t>
+  </si>
+  <si>
+    <t>S20TL01426</t>
+  </si>
+  <si>
+    <t>S20TL01427</t>
+  </si>
+  <si>
+    <t>S20TL01428</t>
+  </si>
+  <si>
+    <t>S20TL01429</t>
+  </si>
+  <si>
+    <t>S20TL01430</t>
+  </si>
+  <si>
+    <t>S20TL01431</t>
+  </si>
+  <si>
+    <t>S20TL01432</t>
+  </si>
+  <si>
+    <t>S20TL01433</t>
+  </si>
+  <si>
+    <t>S20TL01434</t>
+  </si>
+  <si>
+    <t>S20TL01435</t>
+  </si>
+  <si>
+    <t>S20TL01436</t>
+  </si>
+  <si>
+    <t>S20TL01437</t>
+  </si>
+  <si>
+    <t>S20TL01438</t>
+  </si>
+  <si>
+    <t>S20TL01439</t>
+  </si>
+  <si>
+    <t>S20TL01440</t>
+  </si>
+  <si>
+    <t>S20TL01441</t>
+  </si>
+  <si>
+    <t>S20TL01442</t>
+  </si>
+  <si>
+    <t>S20TL01443</t>
+  </si>
+  <si>
+    <t>S20TL01444</t>
+  </si>
+  <si>
+    <t>S20TL01445</t>
+  </si>
+  <si>
+    <t>S20TL01446</t>
+  </si>
+  <si>
+    <t>S20TL01447</t>
+  </si>
+  <si>
+    <t>S20TL01448</t>
+  </si>
+  <si>
+    <t>S20TL01449</t>
+  </si>
+  <si>
+    <t>S20TL01450</t>
+  </si>
+  <si>
+    <t>S20TL01451</t>
+  </si>
+  <si>
+    <t>S20TL01452</t>
+  </si>
+  <si>
+    <t>S20TL01453</t>
+  </si>
+  <si>
+    <t>S20TL01454</t>
+  </si>
+  <si>
+    <t>S20TL01455</t>
+  </si>
+  <si>
+    <t>S20TL01456</t>
+  </si>
+  <si>
+    <t>S20TL01457</t>
+  </si>
+  <si>
+    <t>S20TL01458</t>
+  </si>
+  <si>
+    <t>S20TL01459</t>
+  </si>
+  <si>
+    <t>S20TL01460</t>
+  </si>
+  <si>
+    <t>S20TL01461</t>
+  </si>
+  <si>
+    <t>S20TL01462</t>
+  </si>
+  <si>
+    <t>S20TL01463</t>
+  </si>
+  <si>
+    <t>S20TL01464</t>
+  </si>
+  <si>
+    <t>S20TL01465</t>
+  </si>
+  <si>
+    <t>S20TL01466</t>
+  </si>
+  <si>
+    <t>S20TL01467</t>
+  </si>
+  <si>
+    <t>S20TL01468</t>
+  </si>
+  <si>
+    <t>S20TL01469</t>
+  </si>
+  <si>
+    <t>S20TL01470</t>
+  </si>
+  <si>
+    <t>S20TL01471</t>
+  </si>
+  <si>
+    <t>S20TL01472</t>
+  </si>
+  <si>
+    <t>S20TL01473</t>
+  </si>
+  <si>
+    <t>S20TL01474</t>
+  </si>
+  <si>
+    <t>S20TL01475</t>
+  </si>
+  <si>
+    <t>S20TL01476</t>
+  </si>
+  <si>
+    <t>S20TL01477</t>
+  </si>
+  <si>
+    <t>S20TL01478</t>
+  </si>
+  <si>
+    <t>S20TL01479</t>
+  </si>
+  <si>
+    <t>S20TL01480</t>
+  </si>
+  <si>
+    <t>S20TL01481</t>
+  </si>
+  <si>
+    <t>S20TL01482</t>
+  </si>
+  <si>
+    <t>S20TL01483</t>
+  </si>
+  <si>
+    <t>S20TL01484</t>
+  </si>
+  <si>
+    <t>S20TL01485</t>
+  </si>
+  <si>
+    <t>S20TL01486</t>
+  </si>
+  <si>
+    <t>S20TL01487</t>
+  </si>
+  <si>
+    <t>S20TL01488</t>
+  </si>
+  <si>
+    <t>S20TL01489</t>
+  </si>
+  <si>
+    <t>S20TL01490</t>
+  </si>
+  <si>
+    <t>S20TL01491</t>
+  </si>
+  <si>
+    <t>S20TL01492</t>
+  </si>
+  <si>
+    <t>S20TL01493</t>
+  </si>
+  <si>
+    <t>S20TL01494</t>
+  </si>
+  <si>
+    <t>S20TL01495</t>
+  </si>
+  <si>
+    <t>S20TL01496</t>
+  </si>
+  <si>
+    <t>S20TL01497</t>
+  </si>
+  <si>
+    <t>S20TL01498</t>
+  </si>
+  <si>
+    <t>S20TL01499</t>
+  </si>
+  <si>
+    <t>S20TL01500</t>
+  </si>
+  <si>
+    <t>S20TL01501</t>
+  </si>
+  <si>
+    <t>S20TL01502</t>
+  </si>
+  <si>
+    <t>S20TL01503</t>
+  </si>
+  <si>
+    <t>S20TL01504</t>
+  </si>
+  <si>
+    <t>S20TL01505</t>
+  </si>
+  <si>
+    <t>S20TL01506</t>
+  </si>
+  <si>
+    <t>S20TL01507</t>
+  </si>
+  <si>
+    <t>S20TL01508</t>
+  </si>
+  <si>
+    <t>S20TL01509</t>
+  </si>
+  <si>
+    <t>S20TL01510</t>
+  </si>
+  <si>
+    <t>S20TL01511</t>
+  </si>
+  <si>
+    <t>S20TL01512</t>
+  </si>
+  <si>
+    <t>S20TL01513</t>
+  </si>
+  <si>
+    <t>S20TL01514</t>
+  </si>
+  <si>
+    <t>S20TL01515</t>
+  </si>
+  <si>
+    <t>S20TL01516</t>
+  </si>
+  <si>
+    <t>S20TL01517</t>
+  </si>
+  <si>
+    <t>S20TL01518</t>
+  </si>
+  <si>
+    <t>S20TL01519</t>
+  </si>
+  <si>
+    <t>S20TL01520</t>
+  </si>
+  <si>
+    <t>S20TL01521</t>
+  </si>
+  <si>
+    <t>S20TL01522</t>
+  </si>
+  <si>
+    <t>S20TL01523</t>
+  </si>
+  <si>
+    <t>S20TL01524</t>
+  </si>
+  <si>
+    <t>S20TL01525</t>
+  </si>
+  <si>
+    <t>S20TL01526</t>
+  </si>
+  <si>
+    <t>S20TL01527</t>
+  </si>
+  <si>
+    <t>S20TL01528</t>
+  </si>
+  <si>
+    <t>S20TL01529</t>
+  </si>
+  <si>
+    <t>S20TL01530</t>
+  </si>
+  <si>
+    <t>S20TL01531</t>
+  </si>
+  <si>
+    <t>S20TL01532</t>
+  </si>
+  <si>
+    <t>S20TL01533</t>
+  </si>
+  <si>
+    <t>S20TL01534</t>
+  </si>
+  <si>
+    <t>S20TL01535</t>
+  </si>
+  <si>
+    <t>S20TL01536</t>
+  </si>
+  <si>
+    <t>S20TL01537</t>
+  </si>
+  <si>
+    <t>S20TL01538</t>
+  </si>
+  <si>
+    <t>S20TL01539</t>
+  </si>
+  <si>
+    <t>S20TL01540</t>
+  </si>
+  <si>
+    <t>S20TL01541</t>
+  </si>
+  <si>
+    <t>S20TL01542</t>
+  </si>
+  <si>
+    <t>S20TL01543</t>
+  </si>
+  <si>
+    <t>S20TL01544</t>
+  </si>
+  <si>
+    <t>S20TL01545</t>
+  </si>
+  <si>
+    <t>S20TL01546</t>
+  </si>
+  <si>
+    <t>S20TL01547</t>
+  </si>
+  <si>
+    <t>S20TL01548</t>
+  </si>
+  <si>
+    <t>S20TL01549</t>
+  </si>
+  <si>
+    <t>S20TL01550</t>
+  </si>
+  <si>
+    <t>S20TL01551</t>
+  </si>
+  <si>
+    <t>S20TL01552</t>
+  </si>
+  <si>
+    <t>S20TL01553</t>
+  </si>
+  <si>
+    <t>S20TL01554</t>
+  </si>
+  <si>
+    <t>S20TL01555</t>
+  </si>
+  <si>
+    <t>S20TL01556</t>
+  </si>
+  <si>
+    <t>S20TL01557</t>
+  </si>
+  <si>
+    <t>S20TL01558</t>
+  </si>
+  <si>
+    <t>S20TL01559</t>
+  </si>
+  <si>
+    <t>S20TL01560</t>
+  </si>
+  <si>
+    <t>S20TL01561</t>
+  </si>
+  <si>
+    <t>S20TL01562</t>
+  </si>
+  <si>
+    <t>S20TL01563</t>
+  </si>
+  <si>
+    <t>S20TL01564</t>
+  </si>
+  <si>
+    <t>S20TL01565</t>
+  </si>
+  <si>
+    <t>S20TL01566</t>
+  </si>
+  <si>
+    <t>S20TL01567</t>
+  </si>
+  <si>
+    <t>S20TL01568</t>
+  </si>
+  <si>
+    <t>S20TL01569</t>
+  </si>
+  <si>
+    <t>S20TL01570</t>
+  </si>
+  <si>
+    <t>S20TL01571</t>
+  </si>
+  <si>
+    <t>S20TL01572</t>
+  </si>
+  <si>
+    <t>S20TL01573</t>
+  </si>
+  <si>
+    <t>S20TL01574</t>
+  </si>
+  <si>
+    <t>S20TL01575</t>
+  </si>
+  <si>
+    <t>S20TL01576</t>
+  </si>
+  <si>
+    <t>S20TL01577</t>
+  </si>
+  <si>
+    <t>S20TL01578</t>
+  </si>
+  <si>
+    <t>S20TL01579</t>
+  </si>
+  <si>
+    <t>S20TL01580</t>
+  </si>
+  <si>
+    <t>S20TL01581</t>
+  </si>
+  <si>
+    <t>S20TL01582</t>
+  </si>
+  <si>
+    <t>S20TL01583</t>
+  </si>
+  <si>
+    <t>S20TL01584</t>
+  </si>
+  <si>
+    <t>S20TL01585</t>
+  </si>
+  <si>
+    <t>S20TL01586</t>
+  </si>
+  <si>
+    <t>S20TL01587</t>
+  </si>
+  <si>
+    <t>S20TL01588</t>
+  </si>
+  <si>
+    <t>S20TL01589</t>
+  </si>
+  <si>
+    <t>S20TL01590</t>
+  </si>
+  <si>
+    <t>S20TL01591</t>
+  </si>
+  <si>
+    <t>S20TL01592</t>
+  </si>
+  <si>
+    <t>S20TL01593</t>
+  </si>
+  <si>
+    <t>S20TL01594</t>
+  </si>
+  <si>
+    <t>S20TL01595</t>
+  </si>
+  <si>
+    <t>S20TL01596</t>
+  </si>
+  <si>
+    <t>S20TL01597</t>
+  </si>
+  <si>
+    <t>S20TL01598</t>
+  </si>
+  <si>
+    <t>S20TL01599</t>
+  </si>
+  <si>
+    <t>S20TL01600</t>
+  </si>
+  <si>
+    <t>S20TL01601</t>
+  </si>
+  <si>
+    <t>S20TL01602</t>
+  </si>
+  <si>
+    <t>S20TL01603</t>
+  </si>
+  <si>
+    <t>S20TL01604</t>
+  </si>
+  <si>
+    <t>S20TL01605</t>
+  </si>
+  <si>
+    <t>S20TL01606</t>
+  </si>
+  <si>
+    <t>S20TL01607</t>
+  </si>
+  <si>
+    <t>S20TL01608</t>
+  </si>
+  <si>
+    <t>S20TL01609</t>
+  </si>
+  <si>
+    <t>S20TL01610</t>
+  </si>
+  <si>
+    <t>S20TL01611</t>
+  </si>
+  <si>
+    <t>S20TL01612</t>
+  </si>
+  <si>
+    <t>S20TL01613</t>
+  </si>
+  <si>
+    <t>S20TL01614</t>
+  </si>
+  <si>
+    <t>S20TL01615</t>
+  </si>
+  <si>
+    <t>S20TL01616</t>
+  </si>
+  <si>
+    <t>S20TL01617</t>
+  </si>
+  <si>
+    <t>S20TL01618</t>
+  </si>
+  <si>
+    <t>S20TL01619</t>
+  </si>
+  <si>
+    <t>S20TL01620</t>
+  </si>
+  <si>
+    <t>S20TL01621</t>
+  </si>
+  <si>
+    <t>S20TL01622</t>
+  </si>
+  <si>
+    <t>S20TL01623</t>
+  </si>
+  <si>
+    <t>S20TL01624</t>
+  </si>
+  <si>
+    <t>S20TL01625</t>
+  </si>
+  <si>
+    <t>S20TL01626</t>
+  </si>
+  <si>
+    <t>S20TL01627</t>
+  </si>
+  <si>
+    <t>S20TL01628</t>
+  </si>
+  <si>
+    <t>S20TL01629</t>
+  </si>
+  <si>
+    <t>S20TL01630</t>
+  </si>
+  <si>
+    <t>S20TL01631</t>
+  </si>
+  <si>
+    <t>S20TL01632</t>
+  </si>
+  <si>
+    <t>S20TL01633</t>
+  </si>
+  <si>
+    <t>S20TL01634</t>
+  </si>
+  <si>
+    <t>S20TL01635</t>
+  </si>
+  <si>
+    <t>S20TL01636</t>
+  </si>
+  <si>
+    <t>S20TL01637</t>
+  </si>
+  <si>
+    <t>S20TL01638</t>
+  </si>
+  <si>
+    <t>S20TL01639</t>
+  </si>
+  <si>
+    <t>S20TL01640</t>
+  </si>
+  <si>
+    <t>S20TL01641</t>
+  </si>
+  <si>
+    <t>S20TL01642</t>
+  </si>
+  <si>
+    <t>S20TL01643</t>
+  </si>
+  <si>
+    <t>S20TL01644</t>
+  </si>
+  <si>
+    <t>S20TL01645</t>
+  </si>
+  <si>
+    <t>S20TL01646</t>
+  </si>
+  <si>
+    <t>S20TL01647</t>
+  </si>
+  <si>
+    <t>S20TL01648</t>
+  </si>
+  <si>
+    <t>S20TL01649</t>
+  </si>
+  <si>
+    <t>S20TL01650</t>
+  </si>
+  <si>
+    <t>S20TL01651</t>
+  </si>
+  <si>
+    <t>S20TL01652</t>
+  </si>
+  <si>
+    <t>S20TL01653</t>
+  </si>
+  <si>
+    <t>S20TL01654</t>
+  </si>
+  <si>
+    <t>S20TL01655</t>
+  </si>
+  <si>
+    <t>S20TL01656</t>
+  </si>
+  <si>
+    <t>S20TL01657</t>
+  </si>
+  <si>
+    <t>S20TL01658</t>
+  </si>
+  <si>
+    <t>S20TL01659</t>
+  </si>
+  <si>
+    <t>S20TL01660</t>
+  </si>
+  <si>
+    <t>S20TL01661</t>
+  </si>
+  <si>
+    <t>S20TL01662</t>
+  </si>
+  <si>
+    <t>S20TL01663</t>
+  </si>
+  <si>
+    <t>S20TL01664</t>
+  </si>
+  <si>
+    <t>S20TL01665</t>
+  </si>
+  <si>
+    <t>S20TL01666</t>
+  </si>
+  <si>
+    <t>S20TL01667</t>
+  </si>
+  <si>
+    <t>S20TL01668</t>
+  </si>
+  <si>
+    <t>S20TL01669</t>
+  </si>
+  <si>
+    <t>S20TL01670</t>
+  </si>
+  <si>
+    <t>S20TL01671</t>
+  </si>
+  <si>
+    <t>S20TL01672</t>
+  </si>
+  <si>
+    <t>S20TL01673</t>
+  </si>
+  <si>
+    <t>S20TL01674</t>
+  </si>
+  <si>
+    <t>S20TL01675</t>
+  </si>
+  <si>
+    <t>S20TL01676</t>
+  </si>
+  <si>
+    <t>S20TL01677</t>
+  </si>
+  <si>
+    <t>S20TL01678</t>
+  </si>
+  <si>
+    <t>S20TL01679</t>
+  </si>
+  <si>
+    <t>S20TL01680</t>
+  </si>
+  <si>
+    <t>S20TL01681</t>
+  </si>
+  <si>
+    <t>S20TL01682</t>
+  </si>
+  <si>
+    <t>S20TL01683</t>
+  </si>
+  <si>
+    <t>S20TL01684</t>
+  </si>
+  <si>
+    <t>S20TL01685</t>
+  </si>
+  <si>
+    <t>S20TL01686</t>
+  </si>
+  <si>
+    <t>S20TL01687</t>
+  </si>
+  <si>
+    <t>S20TL01688</t>
+  </si>
+  <si>
+    <t>S20TL01689</t>
+  </si>
+  <si>
+    <t>S20TL01690</t>
+  </si>
+  <si>
+    <t>S20TL01691</t>
+  </si>
+  <si>
+    <t>S20TL01692</t>
+  </si>
+  <si>
+    <t>S20TL01693</t>
+  </si>
+  <si>
+    <t>S20TL01694</t>
+  </si>
+  <si>
+    <t>S20TL01695</t>
+  </si>
+  <si>
+    <t>S20TL01696</t>
+  </si>
+  <si>
+    <t>S20TL01697</t>
+  </si>
+  <si>
+    <t>S20TL01698</t>
+  </si>
+  <si>
+    <t>S20TL01699</t>
+  </si>
+  <si>
+    <t>S20TL01700</t>
+  </si>
+  <si>
+    <t>S20TL01701</t>
+  </si>
+  <si>
+    <t>S20TL01702</t>
+  </si>
+  <si>
+    <t>S20TL01703</t>
+  </si>
+  <si>
+    <t>S20TL01704</t>
+  </si>
+  <si>
+    <t>S20TL01705</t>
+  </si>
+  <si>
+    <t>S20TL01706</t>
+  </si>
+  <si>
+    <t>S20TL01707</t>
+  </si>
+  <si>
+    <t>S20TL01708</t>
+  </si>
+  <si>
+    <t>S20TL01709</t>
+  </si>
+  <si>
+    <t>S20TL01710</t>
+  </si>
+  <si>
+    <t>S20TL01711</t>
+  </si>
+  <si>
+    <t>S20TL01712</t>
+  </si>
+  <si>
+    <t>S20TL01713</t>
+  </si>
+  <si>
+    <t>S20TL01714</t>
+  </si>
+  <si>
+    <t>S20TL01715</t>
+  </si>
+  <si>
+    <t>S20TL01716</t>
+  </si>
+  <si>
+    <t>S20TL01717</t>
+  </si>
+  <si>
+    <t>S20TL01718</t>
+  </si>
+  <si>
+    <t>S20TL01719</t>
+  </si>
+  <si>
+    <t>S20TL01720</t>
+  </si>
+  <si>
+    <t>S20TL01721</t>
+  </si>
+  <si>
+    <t>S20TL01722</t>
+  </si>
+  <si>
+    <t>S20TL01723</t>
+  </si>
+  <si>
+    <t>S20TL01724</t>
+  </si>
+  <si>
+    <t>S20TL01725</t>
+  </si>
+  <si>
+    <t>S20TL01726</t>
+  </si>
+  <si>
+    <t>S20TL01727</t>
+  </si>
+  <si>
+    <t>S20TL01728</t>
+  </si>
+  <si>
+    <t>S20TL01729</t>
+  </si>
+  <si>
+    <t>S20TL01730</t>
+  </si>
+  <si>
+    <t>S20TL01731</t>
+  </si>
+  <si>
+    <t>S20TL01732</t>
+  </si>
+  <si>
+    <t>S20TL01733</t>
+  </si>
+  <si>
+    <t>S20TL01734</t>
+  </si>
+  <si>
+    <t>S20TL01735</t>
+  </si>
+  <si>
+    <t>S20TL01736</t>
+  </si>
+  <si>
+    <t>S20TL01737</t>
+  </si>
+  <si>
+    <t>S20TL01738</t>
+  </si>
+  <si>
+    <t>S20TL01739</t>
+  </si>
+  <si>
+    <t>S20TL01740</t>
+  </si>
+  <si>
+    <t>S20TL01741</t>
+  </si>
+  <si>
+    <t>S20TL01742</t>
+  </si>
+  <si>
+    <t>S20TL01743</t>
+  </si>
+  <si>
+    <t>S20TL01744</t>
+  </si>
+  <si>
+    <t>S20TL01745</t>
+  </si>
+  <si>
+    <t>S20TL01746</t>
+  </si>
+  <si>
+    <t>S20TL01747</t>
+  </si>
+  <si>
+    <t>S20TL01748</t>
+  </si>
+  <si>
+    <t>S20TL01749</t>
+  </si>
+  <si>
+    <t>S20TL01750</t>
+  </si>
+  <si>
+    <t>S20TL01751</t>
+  </si>
+  <si>
+    <t>S20TL01752</t>
+  </si>
+  <si>
+    <t>S20TL01753</t>
+  </si>
+  <si>
+    <t>S20TL01754</t>
+  </si>
+  <si>
+    <t>S20TL01755</t>
+  </si>
+  <si>
+    <t>S20TL01756</t>
+  </si>
+  <si>
+    <t>S20TL01757</t>
+  </si>
+  <si>
+    <t>S20TL01758</t>
+  </si>
+  <si>
+    <t>S20TL01759</t>
+  </si>
+  <si>
+    <t>S20TL01760</t>
+  </si>
+  <si>
+    <t>S20TL01761</t>
+  </si>
+  <si>
+    <t>S20TL01762</t>
+  </si>
+  <si>
+    <t>S20TL01763</t>
+  </si>
+  <si>
+    <t>S20TL01764</t>
+  </si>
+  <si>
+    <t>S20TL01765</t>
+  </si>
+  <si>
+    <t>S20TL01766</t>
+  </si>
+  <si>
+    <t>S20TL01767</t>
+  </si>
+  <si>
+    <t>S20TL01768</t>
+  </si>
+  <si>
+    <t>S20TL01769</t>
+  </si>
+  <si>
+    <t>S20TL01770</t>
+  </si>
+  <si>
+    <t>S20TL01771</t>
+  </si>
+  <si>
+    <t>S20TL01772</t>
+  </si>
+  <si>
+    <t>S20TL01773</t>
+  </si>
+  <si>
+    <t>S20TL01774</t>
+  </si>
+  <si>
+    <t>S20TL01775</t>
+  </si>
+  <si>
+    <t>S20TL01776</t>
+  </si>
+  <si>
+    <t>S20TL01777</t>
+  </si>
+  <si>
+    <t>S20TL01778</t>
+  </si>
+  <si>
+    <t>S20TL01779</t>
+  </si>
+  <si>
+    <t>S20TL01780</t>
+  </si>
+  <si>
+    <t>S20TL01781</t>
+  </si>
+  <si>
+    <t>S20TL01782</t>
+  </si>
+  <si>
+    <t>S20TL01783</t>
+  </si>
+  <si>
+    <t>S20TL01784</t>
+  </si>
+  <si>
+    <t>S20TL01785</t>
+  </si>
+  <si>
+    <t>S20TL01786</t>
+  </si>
+  <si>
+    <t>S20TL01787</t>
+  </si>
+  <si>
+    <t>S20TL01788</t>
+  </si>
+  <si>
+    <t>S20TL01789</t>
+  </si>
+  <si>
+    <t>S20TL01790</t>
+  </si>
+  <si>
+    <t>S20TL01791</t>
+  </si>
+  <si>
+    <t>S20TL01792</t>
+  </si>
+  <si>
+    <t>S20TL01793</t>
+  </si>
+  <si>
+    <t>S20TL01794</t>
+  </si>
+  <si>
+    <t>S20TL01795</t>
+  </si>
+  <si>
+    <t>S20TL01796</t>
+  </si>
+  <si>
+    <t>S20TL01797</t>
+  </si>
+  <si>
+    <t>S20TL01798</t>
+  </si>
+  <si>
+    <t>S20TL01799</t>
+  </si>
+  <si>
+    <t>S20TL01800</t>
+  </si>
+  <si>
+    <t>S20TL01801</t>
+  </si>
+  <si>
+    <t>S20TL01802</t>
+  </si>
+  <si>
+    <t>S20TL01803</t>
+  </si>
+  <si>
+    <t>S20TL01804</t>
+  </si>
+  <si>
+    <t>S20TL01805</t>
+  </si>
+  <si>
+    <t>S20TL01806</t>
+  </si>
+  <si>
+    <t>S20TL01807</t>
+  </si>
+  <si>
+    <t>S20TL01808</t>
+  </si>
+  <si>
+    <t>S20TL01809</t>
+  </si>
+  <si>
+    <t>S20TL01810</t>
+  </si>
+  <si>
+    <t>S20TL01811</t>
+  </si>
+  <si>
+    <t>S20TL01812</t>
+  </si>
+  <si>
+    <t>S20TL01813</t>
+  </si>
+  <si>
+    <t>S20TL01814</t>
+  </si>
+  <si>
+    <t>S20TL01815</t>
+  </si>
+  <si>
+    <t>S20TL01816</t>
+  </si>
+  <si>
+    <t>S20TL01817</t>
+  </si>
+  <si>
+    <t>S20TL01818</t>
+  </si>
+  <si>
+    <t>S20TL01819</t>
+  </si>
+  <si>
+    <t>S20TL01820</t>
+  </si>
+  <si>
+    <t>S20TL01821</t>
+  </si>
+  <si>
+    <t>S20TL01822</t>
+  </si>
+  <si>
+    <t>S20TL01823</t>
+  </si>
+  <si>
+    <t>S20TL01824</t>
+  </si>
+  <si>
+    <t>S20TL01825</t>
+  </si>
+  <si>
+    <t>S20TL01826</t>
+  </si>
+  <si>
+    <t>S20TL01827</t>
+  </si>
+  <si>
+    <t>S20TL01828</t>
+  </si>
+  <si>
+    <t>S20TL01829</t>
+  </si>
+  <si>
+    <t>S20TL01830</t>
+  </si>
+  <si>
+    <t>S20TL01831</t>
+  </si>
+  <si>
+    <t>S20TL01832</t>
+  </si>
+  <si>
+    <t>S20TL01833</t>
+  </si>
+  <si>
+    <t>S20TL01834</t>
+  </si>
+  <si>
+    <t>S20TL01835</t>
+  </si>
+  <si>
+    <t>S20TL01836</t>
+  </si>
+  <si>
+    <t>S20TL01837</t>
+  </si>
+  <si>
+    <t>S20TL01838</t>
+  </si>
+  <si>
+    <t>S20TL01839</t>
+  </si>
+  <si>
+    <t>S20TL01840</t>
+  </si>
+  <si>
+    <t>S20TL01841</t>
+  </si>
+  <si>
+    <t>S20TL01842</t>
+  </si>
+  <si>
+    <t>S20TL01843</t>
+  </si>
+  <si>
+    <t>S20TL01844</t>
+  </si>
+  <si>
+    <t>S20TL01845</t>
+  </si>
+  <si>
+    <t>S20TL01846</t>
+  </si>
+  <si>
+    <t>S20TL01847</t>
+  </si>
+  <si>
+    <t>S20TL01848</t>
+  </si>
+  <si>
+    <t>S20TL01849</t>
+  </si>
+  <si>
+    <t>S20TL01850</t>
+  </si>
+  <si>
+    <t>S20TL01851</t>
+  </si>
+  <si>
+    <t>S20TL01852</t>
+  </si>
+  <si>
+    <t>S20TL01853</t>
+  </si>
+  <si>
+    <t>S20TL01854</t>
+  </si>
+  <si>
+    <t>S20TL01855</t>
+  </si>
+  <si>
+    <t>S20TL01856</t>
+  </si>
+  <si>
+    <t>S20TL01857</t>
+  </si>
+  <si>
+    <t>S20TL01858</t>
+  </si>
+  <si>
+    <t>S20TL01859</t>
+  </si>
+  <si>
+    <t>S20TL01860</t>
+  </si>
+  <si>
+    <t>S20TL01861</t>
+  </si>
+  <si>
+    <t>S20TL01862</t>
+  </si>
+  <si>
+    <t>S20TL01863</t>
+  </si>
+  <si>
+    <t>S20TL01864</t>
+  </si>
+  <si>
+    <t>S20TL01865</t>
+  </si>
+  <si>
+    <t>S20TL01866</t>
+  </si>
+  <si>
+    <t>S20TL01867</t>
+  </si>
+  <si>
+    <t>S20TL01868</t>
+  </si>
+  <si>
+    <t>S20TL01869</t>
+  </si>
+  <si>
+    <t>S20TL01870</t>
+  </si>
+  <si>
+    <t>S20TL01871</t>
+  </si>
+  <si>
+    <t>S20TL01872</t>
+  </si>
+  <si>
+    <t>S20TL01873</t>
+  </si>
+  <si>
+    <t>S20TL01874</t>
+  </si>
+  <si>
+    <t>S20TL01875</t>
+  </si>
+  <si>
+    <t>S20TL01876</t>
+  </si>
+  <si>
+    <t>S20TL01877</t>
+  </si>
+  <si>
+    <t>S20TL01878</t>
+  </si>
+  <si>
+    <t>S20TL01879</t>
+  </si>
+  <si>
+    <t>S20TL01880</t>
+  </si>
+  <si>
+    <t>S20TL01881</t>
+  </si>
+  <si>
+    <t>S20TL01882</t>
+  </si>
+  <si>
+    <t>S20TL01883</t>
+  </si>
+  <si>
+    <t>S20TL01884</t>
+  </si>
+  <si>
+    <t>S20TL01885</t>
+  </si>
+  <si>
+    <t>S20TL01886</t>
+  </si>
+  <si>
+    <t>S20TL01887</t>
+  </si>
+  <si>
+    <t>S20TL01888</t>
+  </si>
+  <si>
+    <t>S20TL01889</t>
+  </si>
+  <si>
+    <t>S20TL01890</t>
+  </si>
+  <si>
+    <t>S20TL01891</t>
+  </si>
+  <si>
+    <t>S20TL01892</t>
+  </si>
+  <si>
+    <t>S20TL01893</t>
+  </si>
+  <si>
+    <t>S20TL01894</t>
+  </si>
+  <si>
+    <t>S20TL01895</t>
+  </si>
+  <si>
+    <t>S20TL01896</t>
+  </si>
+  <si>
+    <t>S20TL01897</t>
+  </si>
+  <si>
+    <t>S20TL01898</t>
+  </si>
+  <si>
+    <t>S20TL01899</t>
+  </si>
+  <si>
+    <t>S20TL01900</t>
+  </si>
+  <si>
+    <t>S20TL01901</t>
+  </si>
+  <si>
+    <t>S20TL01902</t>
+  </si>
+  <si>
+    <t>S20TL01903</t>
+  </si>
+  <si>
+    <t>S20TL01904</t>
+  </si>
+  <si>
+    <t>S20TL01905</t>
+  </si>
+  <si>
+    <t>S20TL01906</t>
+  </si>
+  <si>
+    <t>S20TL01907</t>
+  </si>
+  <si>
+    <t>S20TL01908</t>
+  </si>
+  <si>
+    <t>S20TL01909</t>
+  </si>
+  <si>
+    <t>S20TL01910</t>
+  </si>
+  <si>
+    <t>S20TL01911</t>
+  </si>
+  <si>
+    <t>S20TL01912</t>
+  </si>
+  <si>
+    <t>S20TL01913</t>
+  </si>
+  <si>
+    <t>S20TL01914</t>
+  </si>
+  <si>
+    <t>S20TL01915</t>
+  </si>
+  <si>
+    <t>S20TL01916</t>
+  </si>
+  <si>
+    <t>S20TL01917</t>
+  </si>
+  <si>
+    <t>S20TL01918</t>
+  </si>
+  <si>
+    <t>S20TL01919</t>
+  </si>
+  <si>
+    <t>S20TL01920</t>
+  </si>
+  <si>
+    <t>S20TL01921</t>
+  </si>
+  <si>
+    <t>S20TL01922</t>
+  </si>
+  <si>
+    <t>S20TL01923</t>
+  </si>
+  <si>
+    <t>S20TL01924</t>
+  </si>
+  <si>
+    <t>S20TL01925</t>
+  </si>
+  <si>
+    <t>S20TL01926</t>
+  </si>
+  <si>
+    <t>S20TL01927</t>
+  </si>
+  <si>
+    <t>S20TL01928</t>
+  </si>
+  <si>
+    <t>S20TL01929</t>
+  </si>
+  <si>
+    <t>S20TL01930</t>
+  </si>
+  <si>
+    <t>S20TL01931</t>
+  </si>
+  <si>
+    <t>S20TL01932</t>
+  </si>
+  <si>
+    <t>S20TL01933</t>
+  </si>
+  <si>
+    <t>S20TL01934</t>
+  </si>
+  <si>
+    <t>S20TL01935</t>
+  </si>
+  <si>
+    <t>S20TL01936</t>
+  </si>
+  <si>
+    <t>S20TL01937</t>
+  </si>
+  <si>
+    <t>S20TL01938</t>
+  </si>
+  <si>
+    <t>S20TL01939</t>
+  </si>
+  <si>
+    <t>S20TL01940</t>
+  </si>
+  <si>
+    <t>S20TL01941</t>
+  </si>
+  <si>
+    <t>S20TL01942</t>
+  </si>
+  <si>
+    <t>S20TL01943</t>
+  </si>
+  <si>
+    <t>S20TL01944</t>
+  </si>
+  <si>
+    <t>S20TL01945</t>
+  </si>
+  <si>
+    <t>S20TL01946</t>
+  </si>
+  <si>
+    <t>S20TL01947</t>
+  </si>
+  <si>
+    <t>S20TL01948</t>
+  </si>
+  <si>
+    <t>S20TL01949</t>
+  </si>
+  <si>
+    <t>S20TL01950</t>
+  </si>
+  <si>
+    <t>S20TL01951</t>
+  </si>
+  <si>
+    <t>S20TL01952</t>
+  </si>
+  <si>
+    <t>S20TL01953</t>
+  </si>
+  <si>
+    <t>S20TL01954</t>
+  </si>
+  <si>
+    <t>S20TL01955</t>
+  </si>
+  <si>
+    <t>S20TL01956</t>
+  </si>
+  <si>
+    <t>S20TL01957</t>
+  </si>
+  <si>
+    <t>S20TL01958</t>
+  </si>
+  <si>
+    <t>S20TL01959</t>
+  </si>
+  <si>
+    <t>S20TL01960</t>
+  </si>
+  <si>
+    <t>S20TL01961</t>
+  </si>
+  <si>
+    <t>S20TL01962</t>
+  </si>
+  <si>
+    <t>S20TL01963</t>
+  </si>
+  <si>
+    <t>S20TL01964</t>
+  </si>
+  <si>
+    <t>S20TL01965</t>
+  </si>
+  <si>
+    <t>S20TL01966</t>
+  </si>
+  <si>
+    <t>S20TL01967</t>
+  </si>
+  <si>
+    <t>S20TL01968</t>
+  </si>
+  <si>
+    <t>S20TL01969</t>
+  </si>
+  <si>
+    <t>S20TL01970</t>
+  </si>
+  <si>
+    <t>S20TL01971</t>
+  </si>
+  <si>
+    <t>S20TL01972</t>
+  </si>
+  <si>
+    <t>S20TL01973</t>
+  </si>
+  <si>
+    <t>S20TL01974</t>
+  </si>
+  <si>
+    <t>S20TL01975</t>
+  </si>
+  <si>
+    <t>S20TL01976</t>
+  </si>
+  <si>
+    <t>S20TL01977</t>
+  </si>
+  <si>
+    <t>S20TL01978</t>
+  </si>
+  <si>
+    <t>S20TL01979</t>
+  </si>
+  <si>
+    <t>S20TL01980</t>
+  </si>
+  <si>
+    <t>S20TL01981</t>
+  </si>
+  <si>
+    <t>S20TL01982</t>
+  </si>
+  <si>
+    <t>S20TL01983</t>
+  </si>
+  <si>
+    <t>S20TL01984</t>
+  </si>
+  <si>
+    <t>S20TL01985</t>
+  </si>
+  <si>
+    <t>S20TL01986</t>
+  </si>
+  <si>
+    <t>S20TL01987</t>
+  </si>
+  <si>
+    <t>S20TL01988</t>
+  </si>
+  <si>
+    <t>S20TL01989</t>
+  </si>
+  <si>
+    <t>S20TL01990</t>
+  </si>
+  <si>
+    <t>S20TL01991</t>
+  </si>
+  <si>
+    <t>S20TL01992</t>
+  </si>
+  <si>
+    <t>S20TL01993</t>
+  </si>
+  <si>
+    <t>S20TL01994</t>
+  </si>
+  <si>
+    <t>S20TL01995</t>
+  </si>
+  <si>
+    <t>S20TL01996</t>
+  </si>
+  <si>
+    <t>S20TL01997</t>
+  </si>
+  <si>
+    <t>S20TL01998</t>
+  </si>
+  <si>
+    <t>S20TL01999</t>
+  </si>
+  <si>
+    <t>S20TL02000</t>
   </si>
   <si>
     <t>1995-11-04</t>
